--- a/data/sinProcesar/teddy.xlsx
+++ b/data/sinProcesar/teddy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDDB8EC-A67A-499C-B59D-8BCFE00C87AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B35CC-5297-410D-941B-71CA974F6223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="459" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,12 +485,12 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>º58,15</t>
+      <t>º59,15</t>
     </r>
   </si>
 </sst>
@@ -503,7 +503,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,13 +589,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Garamond"/>
@@ -604,6 +597,19 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Garamond"/>
       <family val="1"/>
     </font>
@@ -837,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,7 +898,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,7 +912,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,26 +948,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,15 +965,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,7 +976,31 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,7 +1030,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>93345</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1446,17 +1455,17 @@
   <dimension ref="A2:F518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B21" sqref="B21:B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="45" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="43" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
@@ -1503,67 +1512,67 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+    <row r="12" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-    </row>
-    <row r="14" spans="2:6" s="21" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="B14" s="77">
-        <v>45108</v>
-      </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="72">
+        <v>45161</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="2:6" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
@@ -1605,13 +1614,13 @@
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
@@ -1631,9 +1640,9 @@
       <c r="E20" s="29"/>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
-      <c r="B21" s="68">
+      <c r="B21" s="83">
         <v>151</v>
       </c>
       <c r="C21" s="28">
@@ -1642,16 +1651,16 @@
       <c r="D21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="66">
-        <v>1839.2</v>
-      </c>
-      <c r="F21" s="64">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E21" s="75">
+        <v>2214.3000000000002</v>
+      </c>
+      <c r="F21" s="80">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
-      <c r="B22" s="68">
+      <c r="B22" s="83">
         <v>152</v>
       </c>
       <c r="C22" s="28">
@@ -1660,16 +1669,16 @@
       <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="66">
-        <v>1875.5</v>
-      </c>
-      <c r="F22" s="64">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E22" s="75">
+        <v>2268.75</v>
+      </c>
+      <c r="F22" s="80">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
-      <c r="B23" s="68">
+      <c r="B23" s="83">
         <v>199</v>
       </c>
       <c r="C23" s="28">
@@ -1678,16 +1687,16 @@
       <c r="D23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="66">
-        <v>1306.8</v>
-      </c>
-      <c r="F23" s="64">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E23" s="75">
+        <v>1585.1</v>
+      </c>
+      <c r="F23" s="80">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
-      <c r="B24" s="68">
+      <c r="B24" s="83">
         <v>149</v>
       </c>
       <c r="C24" s="28">
@@ -1696,16 +1705,16 @@
       <c r="D24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="66">
-        <v>1391.5</v>
-      </c>
-      <c r="F24" s="64">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E24" s="75">
+        <v>1681.9</v>
+      </c>
+      <c r="F24" s="80">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
-      <c r="B25" s="68">
+      <c r="B25" s="83">
         <v>198</v>
       </c>
       <c r="C25" s="28">
@@ -1714,16 +1723,16 @@
       <c r="D25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="66">
-        <v>1258.4000000000001</v>
-      </c>
-      <c r="F25" s="64">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E25" s="75">
+        <v>1512.5</v>
+      </c>
+      <c r="F25" s="80">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
-      <c r="B26" s="68">
+      <c r="B26" s="83">
         <v>148</v>
       </c>
       <c r="C26" s="28">
@@ -1732,16 +1741,16 @@
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="66">
-        <v>1331</v>
-      </c>
-      <c r="F26" s="64">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E26" s="75">
+        <v>1609.3</v>
+      </c>
+      <c r="F26" s="80">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
-      <c r="B27" s="68">
+      <c r="B27" s="83">
         <v>1200</v>
       </c>
       <c r="C27" s="28">
@@ -1750,16 +1759,16 @@
       <c r="D27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="66">
-        <v>1270.5</v>
-      </c>
-      <c r="F27" s="64">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E27" s="75">
+        <v>1536.7</v>
+      </c>
+      <c r="F27" s="80">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
-      <c r="B28" s="68">
+      <c r="B28" s="83">
         <v>1150</v>
       </c>
       <c r="C28" s="28">
@@ -1768,16 +1777,16 @@
       <c r="D28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="66">
-        <v>1329.79</v>
-      </c>
-      <c r="F28" s="64">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E28" s="75">
+        <v>1597.2</v>
+      </c>
+      <c r="F28" s="80">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="B29" s="68">
+      <c r="B29" s="83">
         <v>1161</v>
       </c>
       <c r="C29" s="28">
@@ -1786,16 +1795,16 @@
       <c r="D29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="66">
-        <v>1222.0999999999999</v>
-      </c>
-      <c r="F29" s="64">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E29" s="75">
+        <v>1482.25</v>
+      </c>
+      <c r="F29" s="80">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
-      <c r="B30" s="68">
+      <c r="B30" s="83">
         <v>1162</v>
       </c>
       <c r="C30" s="28">
@@ -1804,16 +1813,16 @@
       <c r="D30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="66">
-        <v>1282.5999999999999</v>
-      </c>
-      <c r="F30" s="64">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E30" s="75">
+        <v>1548.8</v>
+      </c>
+      <c r="F30" s="80">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
-      <c r="B31" s="68">
+      <c r="B31" s="83">
         <v>1205</v>
       </c>
       <c r="C31" s="28">
@@ -1822,12 +1831,12 @@
       <c r="D31" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="64"/>
-    </row>
-    <row r="32" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E31" s="75"/>
+      <c r="F31" s="80"/>
+    </row>
+    <row r="32" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
-      <c r="B32" s="68">
+      <c r="B32" s="83">
         <v>1202</v>
       </c>
       <c r="C32" s="28">
@@ -1836,12 +1845,12 @@
       <c r="D32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E32" s="75"/>
+      <c r="F32" s="80"/>
+    </row>
+    <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
-      <c r="B33" s="68">
+      <c r="B33" s="83">
         <v>4082</v>
       </c>
       <c r="C33" s="28">
@@ -1850,48 +1859,48 @@
       <c r="D33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="66">
-        <v>1851.3</v>
-      </c>
-      <c r="F33" s="64">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E33" s="75">
+        <v>2220.35</v>
+      </c>
+      <c r="F33" s="80">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
-      <c r="B34" s="68">
+      <c r="B34" s="83">
         <v>1152</v>
       </c>
       <c r="C34" s="28">
         <v>7791398021526</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="65"/>
-    </row>
-    <row r="35" spans="1:6" s="13" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="75"/>
+      <c r="F34" s="81"/>
+    </row>
+    <row r="35" spans="1:6" s="13" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
-      <c r="B35" s="69"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="28"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="64"/>
-    </row>
-    <row r="36" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E35" s="75"/>
+      <c r="F35" s="80"/>
+    </row>
+    <row r="36" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34" t="s">
+      <c r="B36" s="84"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="64"/>
-    </row>
-    <row r="37" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E36" s="75"/>
+      <c r="F36" s="80"/>
+    </row>
+    <row r="37" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
-      <c r="B37" s="68">
+      <c r="B37" s="83">
         <v>2070</v>
       </c>
       <c r="C37" s="28">
@@ -1900,16 +1909,16 @@
       <c r="D37" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="66">
-        <v>865.15</v>
-      </c>
-      <c r="F37" s="64">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E37" s="75">
+        <v>1082.95</v>
+      </c>
+      <c r="F37" s="80">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
-      <c r="B38" s="68">
+      <c r="B38" s="83">
         <v>224</v>
       </c>
       <c r="C38" s="28">
@@ -1918,12 +1927,12 @@
       <c r="D38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="64"/>
-    </row>
-    <row r="39" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E38" s="75"/>
+      <c r="F38" s="80"/>
+    </row>
+    <row r="39" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
-      <c r="B39" s="68">
+      <c r="B39" s="83">
         <v>277</v>
       </c>
       <c r="C39" s="28">
@@ -1932,16 +1941,16 @@
       <c r="D39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="66">
-        <v>865.15</v>
-      </c>
-      <c r="F39" s="64">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E39" s="75">
+        <v>1040.5999999999999</v>
+      </c>
+      <c r="F39" s="80">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
-      <c r="B40" s="68">
+      <c r="B40" s="83">
         <v>279</v>
       </c>
       <c r="C40" s="28">
@@ -1950,16 +1959,16 @@
       <c r="D40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="66">
-        <v>955.9</v>
-      </c>
-      <c r="F40" s="64">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E40" s="75">
+        <v>1149.5</v>
+      </c>
+      <c r="F40" s="80">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
-      <c r="B41" s="68">
+      <c r="B41" s="83">
         <v>276</v>
       </c>
       <c r="C41" s="28">
@@ -1968,16 +1977,16 @@
       <c r="D41" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="66">
-        <v>889.35</v>
-      </c>
-      <c r="F41" s="64">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E41" s="75">
+        <v>1076.9000000000001</v>
+      </c>
+      <c r="F41" s="80">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
-      <c r="B42" s="68">
+      <c r="B42" s="83">
         <v>281</v>
       </c>
       <c r="C42" s="28">
@@ -1986,16 +1995,16 @@
       <c r="D42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="66">
-        <v>1010.35</v>
-      </c>
-      <c r="F42" s="64">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E42" s="75">
+        <v>1222.0999999999999</v>
+      </c>
+      <c r="F42" s="80">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
-      <c r="B43" s="68">
+      <c r="B43" s="83">
         <v>284</v>
       </c>
       <c r="C43" s="28">
@@ -2004,12 +2013,12 @@
       <c r="D43" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="64"/>
-    </row>
-    <row r="44" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E43" s="75"/>
+      <c r="F43" s="80"/>
+    </row>
+    <row r="44" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
-      <c r="B44" s="68">
+      <c r="B44" s="83">
         <v>285</v>
       </c>
       <c r="C44" s="28">
@@ -2018,12 +2027,12 @@
       <c r="D44" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="64"/>
-    </row>
-    <row r="45" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E44" s="75"/>
+      <c r="F44" s="80"/>
+    </row>
+    <row r="45" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
-      <c r="B45" s="68">
+      <c r="B45" s="83">
         <v>278</v>
       </c>
       <c r="C45" s="28">
@@ -2032,16 +2041,16 @@
       <c r="D45" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="66">
-        <v>1476.2</v>
-      </c>
-      <c r="F45" s="64">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E45" s="75">
+        <v>1784.75</v>
+      </c>
+      <c r="F45" s="80">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
-      <c r="B46" s="68">
+      <c r="B46" s="83">
         <v>280</v>
       </c>
       <c r="C46" s="28">
@@ -2050,16 +2059,16 @@
       <c r="D46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="66">
-        <v>1355.2</v>
-      </c>
-      <c r="F46" s="64">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E46" s="75">
+        <v>1597.2</v>
+      </c>
+      <c r="F46" s="80">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
-      <c r="B47" s="68">
+      <c r="B47" s="83">
         <v>223</v>
       </c>
       <c r="C47" s="28">
@@ -2068,12 +2077,12 @@
       <c r="D47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="64"/>
-    </row>
-    <row r="48" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E47" s="75"/>
+      <c r="F47" s="80"/>
+    </row>
+    <row r="48" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
-      <c r="B48" s="68">
+      <c r="B48" s="83">
         <v>282</v>
       </c>
       <c r="C48" s="28">
@@ -2082,16 +2091,16 @@
       <c r="D48" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="66">
-        <v>871.2</v>
-      </c>
-      <c r="F48" s="64">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E48" s="75">
+        <v>1058.75</v>
+      </c>
+      <c r="F48" s="80">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
-      <c r="B49" s="68">
+      <c r="B49" s="83">
         <v>283</v>
       </c>
       <c r="C49" s="28">
@@ -2100,16 +2109,16 @@
       <c r="D49" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="66">
-        <v>1046.6500000000001</v>
-      </c>
-      <c r="F49" s="64">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E49" s="75">
+        <v>1264.45</v>
+      </c>
+      <c r="F49" s="80">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
-      <c r="B50" s="68">
+      <c r="B50" s="83">
         <v>286</v>
       </c>
       <c r="C50" s="28">
@@ -2118,16 +2127,16 @@
       <c r="D50" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="66">
-        <v>1137.4000000000001</v>
-      </c>
-      <c r="F50" s="64">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E50" s="75">
+        <v>1331</v>
+      </c>
+      <c r="F50" s="80">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
-      <c r="B51" s="68">
+      <c r="B51" s="83">
         <v>287</v>
       </c>
       <c r="C51" s="28">
@@ -2136,16 +2145,16 @@
       <c r="D51" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="66">
-        <v>1137.4000000000001</v>
-      </c>
-      <c r="F51" s="64">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E51" s="75">
+        <v>1331</v>
+      </c>
+      <c r="F51" s="80">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
-      <c r="B52" s="68">
+      <c r="B52" s="83">
         <v>2080</v>
       </c>
       <c r="C52" s="28">
@@ -2154,16 +2163,16 @@
       <c r="D52" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="66">
-        <v>871.2</v>
-      </c>
-      <c r="F52" s="64">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E52" s="75">
+        <v>1082.95</v>
+      </c>
+      <c r="F52" s="80">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
-      <c r="B53" s="68">
+      <c r="B53" s="83">
         <v>2081</v>
       </c>
       <c r="C53" s="28">
@@ -2172,34 +2181,34 @@
       <c r="D53" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="66">
-        <v>871.2</v>
-      </c>
-      <c r="F53" s="64">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E53" s="75">
+        <v>1082.95</v>
+      </c>
+      <c r="F53" s="80">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
-      <c r="B54" s="68">
+      <c r="B54" s="83">
         <v>2063</v>
       </c>
       <c r="C54" s="28">
         <v>7791398030634</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="66">
-        <v>1512.5</v>
-      </c>
-      <c r="F54" s="64">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E54" s="75">
+        <v>1815</v>
+      </c>
+      <c r="F54" s="80">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26"/>
-      <c r="B55" s="68">
+      <c r="B55" s="83">
         <v>2062</v>
       </c>
       <c r="C55" s="28">
@@ -2208,12 +2217,12 @@
       <c r="D55" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="64"/>
-    </row>
-    <row r="56" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E55" s="75"/>
+      <c r="F55" s="80"/>
+    </row>
+    <row r="56" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26"/>
-      <c r="B56" s="68">
+      <c r="B56" s="83">
         <v>2060</v>
       </c>
       <c r="C56" s="28">
@@ -2222,16 +2231,16 @@
       <c r="D56" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="66">
-        <v>1064.8</v>
-      </c>
-      <c r="F56" s="64">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E56" s="75">
+        <v>1270.5</v>
+      </c>
+      <c r="F56" s="80">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26"/>
-      <c r="B57" s="68">
+      <c r="B57" s="83">
         <v>2061</v>
       </c>
       <c r="C57" s="28">
@@ -2240,16 +2249,16 @@
       <c r="D57" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="66">
-        <v>623.15</v>
-      </c>
-      <c r="F57" s="64">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="13" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="75">
+        <v>750.2</v>
+      </c>
+      <c r="F57" s="80">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="13" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
-      <c r="B58" s="68">
+      <c r="B58" s="83">
         <v>229</v>
       </c>
       <c r="C58" s="28">
@@ -2258,15 +2267,15 @@
       <c r="D58" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="66">
-        <v>998.25</v>
-      </c>
-      <c r="F58" s="64">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B59" s="68">
+      <c r="E58" s="75">
+        <v>1210</v>
+      </c>
+      <c r="F58" s="80">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="83">
         <v>228</v>
       </c>
       <c r="C59" s="28">
@@ -2275,70 +2284,70 @@
       <c r="D59" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="66">
-        <v>998.25</v>
-      </c>
-      <c r="F59" s="64">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B60" s="68">
+      <c r="E59" s="75">
+        <v>1210</v>
+      </c>
+      <c r="F59" s="80">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="83">
         <v>227</v>
       </c>
       <c r="C60" s="28">
         <v>7791398002273</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="65"/>
-    </row>
-    <row r="61" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B61" s="68">
+      <c r="E60" s="75"/>
+      <c r="F60" s="81"/>
+    </row>
+    <row r="61" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="83">
         <v>226</v>
       </c>
       <c r="C61" s="28">
         <v>7791398002266</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="65"/>
-    </row>
-    <row r="62" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B62" s="68">
+      <c r="E61" s="75"/>
+      <c r="F61" s="81"/>
+    </row>
+    <row r="62" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="83">
         <v>225</v>
       </c>
       <c r="C62" s="28">
         <v>7791398002259</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="65"/>
-    </row>
-    <row r="63" spans="1:6" s="13" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="68"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="81"/>
+    </row>
+    <row r="63" spans="1:6" s="13" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="83"/>
       <c r="C63" s="28"/>
       <c r="D63" s="16"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="64"/>
-    </row>
-    <row r="64" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B64" s="68"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="80"/>
+    </row>
+    <row r="64" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="83"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="64"/>
-    </row>
-    <row r="65" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B65" s="68">
+      <c r="E64" s="75"/>
+      <c r="F64" s="80"/>
+    </row>
+    <row r="65" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="83">
         <v>8102</v>
       </c>
       <c r="C65" s="28">
@@ -2347,15 +2356,15 @@
       <c r="D65" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="66">
-        <v>1119.25</v>
-      </c>
-      <c r="F65" s="64">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B66" s="68">
+      <c r="E65" s="75">
+        <v>1421.75</v>
+      </c>
+      <c r="F65" s="80">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="83">
         <v>8103</v>
       </c>
       <c r="C66" s="28">
@@ -2364,15 +2373,15 @@
       <c r="D66" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E66" s="66">
-        <v>1240.25</v>
-      </c>
-      <c r="F66" s="64">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B67" s="68">
+      <c r="E66" s="75">
+        <v>1573</v>
+      </c>
+      <c r="F66" s="80">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="83">
         <v>506</v>
       </c>
       <c r="C67" s="28">
@@ -2381,15 +2390,15 @@
       <c r="D67" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E67" s="66">
-        <v>877.25</v>
-      </c>
-      <c r="F67" s="64">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B68" s="68">
+      <c r="E67" s="75">
+        <v>1101.0999999999999</v>
+      </c>
+      <c r="F67" s="80">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="83">
         <v>260</v>
       </c>
       <c r="C68" s="28">
@@ -2398,11 +2407,11 @@
       <c r="D68" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="64"/>
-    </row>
-    <row r="69" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B69" s="68">
+      <c r="E68" s="75"/>
+      <c r="F68" s="80"/>
+    </row>
+    <row r="69" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="83">
         <v>261</v>
       </c>
       <c r="C69" s="28">
@@ -2411,15 +2420,15 @@
       <c r="D69" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="66">
-        <v>919.6</v>
-      </c>
-      <c r="F69" s="64">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B70" s="68">
+      <c r="E69" s="75">
+        <v>1119.25</v>
+      </c>
+      <c r="F69" s="80">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="83">
         <v>255</v>
       </c>
       <c r="C70" s="28">
@@ -2428,15 +2437,15 @@
       <c r="D70" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E70" s="66">
-        <v>689.7</v>
-      </c>
-      <c r="F70" s="64">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B71" s="68">
+      <c r="E70" s="75">
+        <v>847</v>
+      </c>
+      <c r="F70" s="80">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="83">
         <v>505</v>
       </c>
       <c r="C71" s="28">
@@ -2445,15 +2454,15 @@
       <c r="D71" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E71" s="66">
-        <v>762.3</v>
-      </c>
-      <c r="F71" s="64">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B72" s="68">
+      <c r="E71" s="75">
+        <v>955.9</v>
+      </c>
+      <c r="F71" s="80">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="83">
         <v>271</v>
       </c>
       <c r="C72" s="28">
@@ -2462,15 +2471,11 @@
       <c r="D72" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E72" s="66">
-        <v>816.75</v>
-      </c>
-      <c r="F72" s="64">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B73" s="68">
+      <c r="E72" s="75"/>
+      <c r="F72" s="80"/>
+    </row>
+    <row r="73" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="83">
         <v>4150</v>
       </c>
       <c r="C73" s="28">
@@ -2479,15 +2484,15 @@
       <c r="D73" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="66">
-        <v>2153.8000000000002</v>
-      </c>
-      <c r="F73" s="64">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B74" s="68">
+      <c r="E73" s="75">
+        <v>2770.9</v>
+      </c>
+      <c r="F73" s="80">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="83">
         <v>4151</v>
       </c>
       <c r="C74" s="28">
@@ -2496,15 +2501,15 @@
       <c r="D74" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="66">
-        <v>1573</v>
-      </c>
-      <c r="F74" s="64">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B75" s="68">
+      <c r="E74" s="75">
+        <v>1984.4</v>
+      </c>
+      <c r="F74" s="80">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="83">
         <v>218</v>
       </c>
       <c r="C75" s="28">
@@ -2513,11 +2518,11 @@
       <c r="D75" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="66"/>
-      <c r="F75" s="64"/>
-    </row>
-    <row r="76" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B76" s="68">
+      <c r="E75" s="75"/>
+      <c r="F75" s="80"/>
+    </row>
+    <row r="76" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="83">
         <v>306</v>
       </c>
       <c r="C76" s="28">
@@ -2526,15 +2531,15 @@
       <c r="D76" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="66">
-        <v>968</v>
-      </c>
-      <c r="F76" s="64">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B77" s="68">
+      <c r="E76" s="75">
+        <v>1161.5999999999999</v>
+      </c>
+      <c r="F76" s="80">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="83">
         <v>272</v>
       </c>
       <c r="C77" s="28">
@@ -2543,15 +2548,15 @@
       <c r="D77" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="66">
-        <v>1246.3</v>
-      </c>
-      <c r="F77" s="64">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B78" s="68">
+      <c r="E77" s="75">
+        <v>1591.15</v>
+      </c>
+      <c r="F77" s="80">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="83">
         <v>268</v>
       </c>
       <c r="C78" s="28">
@@ -2560,15 +2565,15 @@
       <c r="D78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="66">
-        <v>1706.1</v>
-      </c>
-      <c r="F78" s="64">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B79" s="68">
+      <c r="E78" s="75">
+        <v>2087.25</v>
+      </c>
+      <c r="F78" s="80">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="83">
         <v>4080</v>
       </c>
       <c r="C79" s="28">
@@ -2577,15 +2582,15 @@
       <c r="D79" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="66">
-        <v>562.65</v>
-      </c>
-      <c r="F79" s="64">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B80" s="68">
+      <c r="E79" s="75">
+        <v>701.8</v>
+      </c>
+      <c r="F79" s="80">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="83">
         <v>4081</v>
       </c>
       <c r="C80" s="28">
@@ -2594,11 +2599,11 @@
       <c r="D80" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E80" s="66"/>
-      <c r="F80" s="64"/>
-    </row>
-    <row r="81" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B81" s="68">
+      <c r="E80" s="75"/>
+      <c r="F80" s="80"/>
+    </row>
+    <row r="81" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="83">
         <v>4050</v>
       </c>
       <c r="C81" s="28">
@@ -2607,15 +2612,15 @@
       <c r="D81" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="66">
+      <c r="E81" s="75">
         <v>968</v>
       </c>
-      <c r="F81" s="64">
-        <v>11460</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B82" s="68">
+      <c r="F81" s="80">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="83">
         <v>4070</v>
       </c>
       <c r="C82" s="28">
@@ -2624,15 +2629,15 @@
       <c r="D82" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E82" s="66">
-        <v>968</v>
-      </c>
-      <c r="F82" s="64">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B83" s="68">
+      <c r="E82" s="75">
+        <v>1179.75</v>
+      </c>
+      <c r="F82" s="80">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="83">
         <v>269</v>
       </c>
       <c r="C83" s="28">
@@ -2641,31 +2646,31 @@
       <c r="D83" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="66">
-        <v>895.4</v>
-      </c>
-      <c r="F83" s="64">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" s="13" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="68"/>
+      <c r="E83" s="75">
+        <v>1082.95</v>
+      </c>
+      <c r="F83" s="80">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" s="13" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="83"/>
       <c r="C84" s="28"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="64"/>
-    </row>
-    <row r="85" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B85" s="68"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="34" t="s">
+      <c r="E84" s="75"/>
+      <c r="F84" s="80"/>
+    </row>
+    <row r="85" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="83"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E85" s="66"/>
-      <c r="F85" s="64"/>
-    </row>
-    <row r="86" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B86" s="68">
+      <c r="E85" s="75"/>
+      <c r="F85" s="80"/>
+    </row>
+    <row r="86" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="83">
         <v>1974</v>
       </c>
       <c r="C86" s="28">
@@ -2674,15 +2679,11 @@
       <c r="D86" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E86" s="66">
-        <v>2226.4</v>
-      </c>
-      <c r="F86" s="64">
-        <v>3370</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B87" s="68">
+      <c r="E86" s="75"/>
+      <c r="F86" s="80"/>
+    </row>
+    <row r="87" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="83">
         <v>1976</v>
       </c>
       <c r="C87" s="28">
@@ -2691,15 +2692,11 @@
       <c r="D87" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E87" s="66">
-        <v>2226.4</v>
-      </c>
-      <c r="F87" s="64">
-        <v>3370</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B88" s="68">
+      <c r="E87" s="75"/>
+      <c r="F87" s="80"/>
+    </row>
+    <row r="88" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="83">
         <v>1975</v>
       </c>
       <c r="C88" s="28">
@@ -2708,15 +2705,11 @@
       <c r="D88" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E88" s="66">
-        <v>2528.9</v>
-      </c>
-      <c r="F88" s="64">
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B89" s="68">
+      <c r="E88" s="75"/>
+      <c r="F88" s="80"/>
+    </row>
+    <row r="89" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="83">
         <v>980</v>
       </c>
       <c r="C89" s="28">
@@ -2725,15 +2718,11 @@
       <c r="D89" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E89" s="66">
-        <v>1391.5</v>
-      </c>
-      <c r="F89" s="64">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B90" s="68">
+      <c r="E89" s="75"/>
+      <c r="F89" s="80"/>
+    </row>
+    <row r="90" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="83">
         <v>1243</v>
       </c>
       <c r="C90" s="28">
@@ -2742,15 +2731,11 @@
       <c r="D90" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="66">
-        <v>3496.9</v>
-      </c>
-      <c r="F90" s="64">
-        <v>5150</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B91" s="68">
+      <c r="E90" s="75"/>
+      <c r="F90" s="80"/>
+    </row>
+    <row r="91" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="83">
         <v>244</v>
       </c>
       <c r="C91" s="28">
@@ -2759,15 +2744,11 @@
       <c r="D91" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E91" s="66">
-        <v>2722.5</v>
-      </c>
-      <c r="F91" s="64">
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B92" s="68">
+      <c r="E91" s="75"/>
+      <c r="F91" s="80"/>
+    </row>
+    <row r="92" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="83">
         <v>245</v>
       </c>
       <c r="C92" s="28">
@@ -2776,15 +2757,11 @@
       <c r="D92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E92" s="66">
-        <v>2238.5</v>
-      </c>
-      <c r="F92" s="64">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B93" s="68">
+      <c r="E92" s="75"/>
+      <c r="F92" s="80"/>
+    </row>
+    <row r="93" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="83">
         <v>246</v>
       </c>
       <c r="C93" s="28">
@@ -2793,15 +2770,11 @@
       <c r="D93" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E93" s="66">
-        <v>2032.8</v>
-      </c>
-      <c r="F93" s="64">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B94" s="68">
+      <c r="E93" s="75"/>
+      <c r="F93" s="80"/>
+    </row>
+    <row r="94" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="83">
         <v>274</v>
       </c>
       <c r="C94" s="28">
@@ -2810,15 +2783,15 @@
       <c r="D94" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E94" s="66">
-        <v>1210</v>
-      </c>
-      <c r="F94" s="64">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B95" s="68">
+      <c r="E94" s="75">
+        <v>1488.3</v>
+      </c>
+      <c r="F94" s="80">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="83">
         <v>273</v>
       </c>
       <c r="C95" s="28">
@@ -2827,15 +2800,15 @@
       <c r="D95" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E95" s="66">
-        <v>1185.8</v>
-      </c>
-      <c r="F95" s="64">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B96" s="68">
+      <c r="E95" s="75">
+        <v>1452</v>
+      </c>
+      <c r="F95" s="80">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="83">
         <v>264</v>
       </c>
       <c r="C96" s="28">
@@ -2844,15 +2817,15 @@
       <c r="D96" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E96" s="66">
-        <v>695.75</v>
-      </c>
-      <c r="F96" s="64">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B97" s="68">
+      <c r="E96" s="75">
+        <v>840.95</v>
+      </c>
+      <c r="F96" s="80">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="83">
         <v>266</v>
       </c>
       <c r="C97" s="28">
@@ -2861,15 +2834,15 @@
       <c r="D97" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E97" s="66">
-        <v>701.8</v>
-      </c>
-      <c r="F97" s="64">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B98" s="68">
+      <c r="E97" s="75">
+        <v>859.1</v>
+      </c>
+      <c r="F97" s="80">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="83">
         <v>5050</v>
       </c>
       <c r="C98" s="28">
@@ -2878,15 +2851,15 @@
       <c r="D98" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="66">
-        <v>1113.2</v>
-      </c>
-      <c r="F98" s="64">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B99" s="68">
+      <c r="E98" s="75">
+        <v>1300.75</v>
+      </c>
+      <c r="F98" s="80">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="83">
         <v>5051</v>
       </c>
       <c r="C99" s="28">
@@ -2895,15 +2868,15 @@
       <c r="D99" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E99" s="66">
-        <v>1137.4000000000001</v>
-      </c>
-      <c r="F99" s="64">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B100" s="68">
+      <c r="E99" s="75">
+        <v>1331</v>
+      </c>
+      <c r="F99" s="80">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="83">
         <v>259</v>
       </c>
       <c r="C100" s="28">
@@ -2912,31 +2885,31 @@
       <c r="D100" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="66">
-        <v>556.6</v>
-      </c>
-      <c r="F100" s="64">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" s="13" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="68"/>
+      <c r="E100" s="75">
+        <v>665.5</v>
+      </c>
+      <c r="F100" s="80">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" s="13" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="83"/>
       <c r="C101" s="28"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="64"/>
-    </row>
-    <row r="102" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B102" s="68"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="80"/>
+    </row>
+    <row r="102" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="83"/>
       <c r="C102" s="28"/>
-      <c r="D102" s="34" t="s">
+      <c r="D102" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E102" s="66"/>
-      <c r="F102" s="64"/>
-    </row>
-    <row r="103" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B103" s="68">
+      <c r="E102" s="75"/>
+      <c r="F102" s="80"/>
+    </row>
+    <row r="103" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="83">
         <v>262</v>
       </c>
       <c r="C103" s="28">
@@ -2945,15 +2918,15 @@
       <c r="D103" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E103" s="66">
-        <v>1208.79</v>
-      </c>
-      <c r="F103" s="64">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B104" s="68">
+      <c r="E103" s="75">
+        <v>1530.65</v>
+      </c>
+      <c r="F103" s="80">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="83">
         <v>263</v>
       </c>
       <c r="C104" s="28">
@@ -2962,15 +2935,15 @@
       <c r="D104" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E104" s="66">
-        <v>1208.79</v>
-      </c>
-      <c r="F104" s="64">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B105" s="68">
+      <c r="E104" s="75">
+        <v>1530.65</v>
+      </c>
+      <c r="F104" s="80">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="83">
         <v>267</v>
       </c>
       <c r="C105" s="28">
@@ -2979,15 +2952,15 @@
       <c r="D105" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E105" s="66">
-        <v>1191.8499999999999</v>
-      </c>
-      <c r="F105" s="64">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B106" s="68">
+      <c r="E105" s="75">
+        <v>1476.2</v>
+      </c>
+      <c r="F105" s="80">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="83">
         <v>1264</v>
       </c>
       <c r="C106" s="28">
@@ -2996,15 +2969,15 @@
       <c r="D106" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E106" s="66">
-        <v>913.55</v>
-      </c>
-      <c r="F106" s="64">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B107" s="68">
+      <c r="E106" s="75">
+        <v>1137.4000000000001</v>
+      </c>
+      <c r="F106" s="80">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="83">
         <v>1265</v>
       </c>
       <c r="C107" s="28">
@@ -3013,15 +2986,15 @@
       <c r="D107" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E107" s="66">
-        <v>913.55</v>
-      </c>
-      <c r="F107" s="64">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B108" s="68">
+      <c r="E107" s="75">
+        <v>1137.4000000000001</v>
+      </c>
+      <c r="F107" s="80">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="83">
         <v>265</v>
       </c>
       <c r="C108" s="28">
@@ -3030,15 +3003,15 @@
       <c r="D108" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E108" s="66">
-        <v>816.75</v>
-      </c>
-      <c r="F108" s="64">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B109" s="68">
+      <c r="E108" s="75">
+        <v>986.15</v>
+      </c>
+      <c r="F108" s="80">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="83">
         <v>5053</v>
       </c>
       <c r="C109" s="28">
@@ -3047,15 +3020,15 @@
       <c r="D109" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="66">
-        <v>2541</v>
-      </c>
-      <c r="F109" s="64">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B110" s="68">
+      <c r="E109" s="75">
+        <v>3176.25</v>
+      </c>
+      <c r="F109" s="80">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="83">
         <v>5056</v>
       </c>
       <c r="C110" s="28">
@@ -3064,31 +3037,31 @@
       <c r="D110" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E110" s="66">
-        <v>1089</v>
-      </c>
-      <c r="F110" s="64">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" s="13" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="68"/>
+      <c r="E110" s="75">
+        <v>1318.9</v>
+      </c>
+      <c r="F110" s="80">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" s="13" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="83"/>
       <c r="C111" s="28"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="64"/>
-    </row>
-    <row r="112" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B112" s="68"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="80"/>
+    </row>
+    <row r="112" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="83"/>
       <c r="C112" s="28"/>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E112" s="66"/>
-      <c r="F112" s="64"/>
-    </row>
-    <row r="113" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B113" s="68">
+      <c r="E112" s="75"/>
+      <c r="F112" s="80"/>
+    </row>
+    <row r="113" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="83">
         <v>4250</v>
       </c>
       <c r="C113" s="28">
@@ -3097,15 +3070,15 @@
       <c r="D113" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E113" s="66">
-        <v>943.8</v>
-      </c>
-      <c r="F113" s="64">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B114" s="68">
+      <c r="E113" s="75">
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="F113" s="80">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="83">
         <v>901</v>
       </c>
       <c r="C114" s="28">
@@ -3114,15 +3087,15 @@
       <c r="D114" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E114" s="66">
-        <v>949.85</v>
-      </c>
-      <c r="F114" s="64">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B115" s="68">
+      <c r="E114" s="75">
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="F114" s="80">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="83">
         <v>905</v>
       </c>
       <c r="C115" s="28">
@@ -3131,15 +3104,15 @@
       <c r="D115" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E115" s="66">
-        <v>980.1</v>
-      </c>
-      <c r="F115" s="64">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B116" s="68">
+      <c r="E115" s="75">
+        <v>1185.8</v>
+      </c>
+      <c r="F115" s="80">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="83">
         <v>906</v>
       </c>
       <c r="C116" s="28">
@@ -3148,15 +3121,15 @@
       <c r="D116" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E116" s="66">
-        <v>1264.45</v>
-      </c>
-      <c r="F116" s="64">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B117" s="68">
+      <c r="E116" s="75">
+        <v>1512.5</v>
+      </c>
+      <c r="F116" s="80">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="83">
         <v>907</v>
       </c>
       <c r="C117" s="28">
@@ -3165,15 +3138,15 @@
       <c r="D117" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E117" s="66">
-        <v>1089</v>
-      </c>
-      <c r="F117" s="64">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B118" s="68">
+      <c r="E117" s="75">
+        <v>1306.8</v>
+      </c>
+      <c r="F117" s="80">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="83">
         <v>908</v>
       </c>
       <c r="C118" s="28">
@@ -3182,31 +3155,31 @@
       <c r="D118" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E118" s="66">
-        <v>955.9</v>
-      </c>
-      <c r="F118" s="64">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" s="13" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="68"/>
+      <c r="E118" s="75">
+        <v>1149.5</v>
+      </c>
+      <c r="F118" s="80">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" s="13" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="83"/>
       <c r="C119" s="28"/>
       <c r="D119" s="16"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="64"/>
-    </row>
-    <row r="120" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B120" s="68"/>
+      <c r="E119" s="75"/>
+      <c r="F119" s="80"/>
+    </row>
+    <row r="120" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="83"/>
       <c r="C120" s="28"/>
-      <c r="D120" s="34" t="s">
+      <c r="D120" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E120" s="66"/>
-      <c r="F120" s="64"/>
-    </row>
-    <row r="121" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B121" s="68">
+      <c r="E120" s="75"/>
+      <c r="F120" s="80"/>
+    </row>
+    <row r="121" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="83">
         <v>6250</v>
       </c>
       <c r="C121" s="28">
@@ -3215,15 +3188,15 @@
       <c r="D121" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="66">
-        <v>677.7</v>
-      </c>
-      <c r="F121" s="64">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B122" s="68">
+      <c r="E121" s="75">
+        <v>816.75</v>
+      </c>
+      <c r="F121" s="80">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="83">
         <v>6251</v>
       </c>
       <c r="C122" s="28">
@@ -3232,15 +3205,15 @@
       <c r="D122" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="66">
-        <v>786.5</v>
-      </c>
-      <c r="F122" s="64">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B123" s="68">
+      <c r="E122" s="75">
+        <v>943.8</v>
+      </c>
+      <c r="F122" s="80">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="83">
         <v>6252</v>
       </c>
       <c r="C123" s="28">
@@ -3249,15 +3222,15 @@
       <c r="D123" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E123" s="66">
-        <v>943.8</v>
-      </c>
-      <c r="F123" s="64">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B124" s="68">
+      <c r="E123" s="75">
+        <v>1149.5</v>
+      </c>
+      <c r="F123" s="80">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="83">
         <v>6253</v>
       </c>
       <c r="C124" s="28">
@@ -3266,15 +3239,15 @@
       <c r="D124" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E124" s="66">
-        <v>1500.4</v>
-      </c>
-      <c r="F124" s="64">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B125" s="68">
+      <c r="E124" s="75">
+        <v>1923.9</v>
+      </c>
+      <c r="F124" s="80">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="83">
         <v>6254</v>
       </c>
       <c r="C125" s="28">
@@ -3283,15 +3256,15 @@
       <c r="D125" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E125" s="66">
-        <v>3751</v>
-      </c>
-      <c r="F125" s="64">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B126" s="68">
+      <c r="E125" s="75">
+        <v>4719</v>
+      </c>
+      <c r="F125" s="80">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="83">
         <v>403</v>
       </c>
       <c r="C126" s="28">
@@ -3300,15 +3273,15 @@
       <c r="D126" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E126" s="66">
-        <v>1899.7</v>
-      </c>
-      <c r="F126" s="64">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B127" s="68">
+      <c r="E126" s="75">
+        <v>2299</v>
+      </c>
+      <c r="F126" s="80">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="83">
         <v>404</v>
       </c>
       <c r="C127" s="28">
@@ -3317,11 +3290,11 @@
       <c r="D127" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E127" s="66"/>
-      <c r="F127" s="64"/>
-    </row>
-    <row r="128" spans="2:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B128" s="68">
+      <c r="E127" s="75"/>
+      <c r="F127" s="80"/>
+    </row>
+    <row r="128" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="83">
         <v>405</v>
       </c>
       <c r="C128" s="28">
@@ -3330,15 +3303,15 @@
       <c r="D128" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E128" s="66">
-        <v>3206.5</v>
-      </c>
-      <c r="F128" s="64">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B129" s="68">
+      <c r="E128" s="75">
+        <v>4235</v>
+      </c>
+      <c r="F128" s="80">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="83">
         <v>406</v>
       </c>
       <c r="C129" s="28">
@@ -3347,15 +3320,15 @@
       <c r="D129" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E129" s="66">
-        <v>1694</v>
-      </c>
-      <c r="F129" s="64">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B130" s="68">
+      <c r="E129" s="75">
+        <v>2087.25</v>
+      </c>
+      <c r="F129" s="80">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="83">
         <v>6300</v>
       </c>
       <c r="C130" s="28">
@@ -3364,3213 +3337,3209 @@
       <c r="D130" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="66">
-        <v>877.25</v>
-      </c>
-      <c r="F130" s="64">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="13" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="68"/>
+      <c r="E130" s="75"/>
+      <c r="F130" s="80"/>
+    </row>
+    <row r="131" spans="1:6" s="13" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="83"/>
       <c r="C131" s="28"/>
       <c r="D131" s="16"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="72"/>
-    </row>
-    <row r="132" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E131" s="76"/>
+      <c r="F131" s="82"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="68"/>
+      <c r="B132" s="83"/>
       <c r="C132" s="28"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="64"/>
-    </row>
-    <row r="133" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D132" s="33"/>
+      <c r="E132" s="75"/>
+      <c r="F132" s="80"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="68"/>
+      <c r="B133" s="83"/>
       <c r="C133" s="28"/>
       <c r="D133" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E133" s="66"/>
-      <c r="F133" s="64"/>
-    </row>
-    <row r="134" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E133" s="75"/>
+      <c r="F133" s="80"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="68"/>
+      <c r="B134" s="83"/>
       <c r="C134" s="28"/>
       <c r="D134" s="16"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="64"/>
-    </row>
-    <row r="135" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E134" s="75"/>
+      <c r="F134" s="80"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="68">
+      <c r="B135" s="83">
         <v>910</v>
       </c>
       <c r="C135" s="28">
         <v>7791398009104</v>
       </c>
-      <c r="D135" s="48" t="s">
+      <c r="D135" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E135" s="66">
-        <v>6485.6</v>
-      </c>
-      <c r="F135" s="64">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E135" s="75">
+        <v>7852.9</v>
+      </c>
+      <c r="F135" s="80">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="68"/>
+      <c r="B136" s="83"/>
       <c r="C136" s="28"/>
-      <c r="D136" s="49" t="s">
+      <c r="D136" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E136" s="66"/>
-      <c r="F136" s="64"/>
-    </row>
-    <row r="137" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E136" s="75"/>
+      <c r="F136" s="80"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="68"/>
+      <c r="B137" s="83"/>
       <c r="C137" s="28"/>
       <c r="D137" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E137" s="66"/>
-      <c r="F137" s="64"/>
-    </row>
-    <row r="138" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E137" s="75"/>
+      <c r="F137" s="80"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="68"/>
+      <c r="B138" s="83"/>
       <c r="C138" s="28"/>
       <c r="D138" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E138" s="66"/>
-      <c r="F138" s="64"/>
-    </row>
-    <row r="139" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E138" s="75"/>
+      <c r="F138" s="80"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="68"/>
+      <c r="B139" s="83"/>
       <c r="C139" s="28"/>
       <c r="D139" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E139" s="66"/>
-      <c r="F139" s="64"/>
-    </row>
-    <row r="140" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E139" s="75"/>
+      <c r="F139" s="80"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="68"/>
+      <c r="B140" s="83"/>
       <c r="C140" s="28"/>
       <c r="D140" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E140" s="66"/>
-      <c r="F140" s="64"/>
-    </row>
-    <row r="141" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E140" s="75"/>
+      <c r="F140" s="80"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="68"/>
+      <c r="B141" s="83"/>
       <c r="C141" s="28"/>
       <c r="D141" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E141" s="66"/>
-      <c r="F141" s="64"/>
-    </row>
-    <row r="142" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E141" s="75"/>
+      <c r="F141" s="80"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="68"/>
+      <c r="B142" s="83"/>
       <c r="C142" s="28"/>
       <c r="D142" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E142" s="66"/>
-      <c r="F142" s="64"/>
-    </row>
-    <row r="143" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E142" s="75"/>
+      <c r="F142" s="80"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="68"/>
+      <c r="B143" s="83"/>
       <c r="C143" s="28"/>
-      <c r="D143" s="50" t="s">
+      <c r="D143" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E143" s="66"/>
-      <c r="F143" s="64"/>
-    </row>
-    <row r="144" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E143" s="75"/>
+      <c r="F143" s="80"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="68"/>
+      <c r="B144" s="83"/>
       <c r="C144" s="28"/>
       <c r="D144" s="16"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="64"/>
-    </row>
-    <row r="145" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E144" s="75"/>
+      <c r="F144" s="80"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="68">
+      <c r="B145" s="83">
         <v>911</v>
       </c>
       <c r="C145" s="28">
         <v>7791398009111</v>
       </c>
-      <c r="D145" s="48" t="s">
+      <c r="D145" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="E145" s="66">
-        <v>7623</v>
-      </c>
-      <c r="F145" s="64">
-        <v>10300</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E145" s="75">
+        <v>9232.2999999999993</v>
+      </c>
+      <c r="F145" s="80">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="68"/>
+      <c r="B146" s="83"/>
       <c r="C146" s="28"/>
-      <c r="D146" s="49" t="s">
+      <c r="D146" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E146" s="66"/>
-      <c r="F146" s="64"/>
-    </row>
-    <row r="147" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E146" s="75"/>
+      <c r="F146" s="80"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="68"/>
+      <c r="B147" s="83"/>
       <c r="C147" s="28"/>
       <c r="D147" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E147" s="66"/>
-      <c r="F147" s="64"/>
-    </row>
-    <row r="148" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E147" s="75"/>
+      <c r="F147" s="80"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="68"/>
+      <c r="B148" s="83"/>
       <c r="C148" s="28"/>
       <c r="D148" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E148" s="66"/>
-      <c r="F148" s="64"/>
-    </row>
-    <row r="149" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E148" s="75"/>
+      <c r="F148" s="80"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="68"/>
+      <c r="B149" s="83"/>
       <c r="C149" s="28"/>
       <c r="D149" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E149" s="66"/>
-      <c r="F149" s="64"/>
-    </row>
-    <row r="150" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E149" s="75"/>
+      <c r="F149" s="80"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="68"/>
+      <c r="B150" s="83"/>
       <c r="C150" s="28"/>
       <c r="D150" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E150" s="66"/>
-      <c r="F150" s="64"/>
-    </row>
-    <row r="151" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E150" s="75"/>
+      <c r="F150" s="80"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="68"/>
+      <c r="B151" s="83"/>
       <c r="C151" s="28"/>
       <c r="D151" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E151" s="66"/>
-      <c r="F151" s="64"/>
-    </row>
-    <row r="152" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E151" s="75"/>
+      <c r="F151" s="80"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="68"/>
+      <c r="B152" s="83"/>
       <c r="C152" s="28"/>
       <c r="D152" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E152" s="66"/>
-      <c r="F152" s="64"/>
-    </row>
-    <row r="153" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E152" s="75"/>
+      <c r="F152" s="80"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="68"/>
+      <c r="B153" s="83"/>
       <c r="C153" s="28"/>
       <c r="D153" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E153" s="66"/>
-      <c r="F153" s="64"/>
-    </row>
-    <row r="154" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E153" s="75"/>
+      <c r="F153" s="80"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="68"/>
+      <c r="B154" s="83"/>
       <c r="C154" s="28"/>
       <c r="D154" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E154" s="66"/>
-      <c r="F154" s="64"/>
-    </row>
-    <row r="155" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E154" s="75"/>
+      <c r="F154" s="80"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="68"/>
+      <c r="B155" s="83"/>
       <c r="C155" s="28"/>
       <c r="D155" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E155" s="66"/>
-      <c r="F155" s="64"/>
-    </row>
-    <row r="156" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E155" s="75"/>
+      <c r="F155" s="80"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="68"/>
+      <c r="B156" s="83"/>
       <c r="C156" s="28"/>
-      <c r="D156" s="50" t="s">
+      <c r="D156" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="E156" s="66"/>
-      <c r="F156" s="64"/>
-    </row>
-    <row r="157" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E156" s="75"/>
+      <c r="F156" s="80"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="68"/>
+      <c r="B157" s="83"/>
       <c r="C157" s="28"/>
       <c r="D157" s="16"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="64"/>
-    </row>
-    <row r="158" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E157" s="75"/>
+      <c r="F157" s="80"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="68">
+      <c r="B158" s="83">
         <v>912</v>
       </c>
       <c r="C158" s="28">
         <v>7791398009128</v>
       </c>
-      <c r="D158" s="48" t="s">
+      <c r="D158" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E158" s="66">
-        <v>8107</v>
-      </c>
-      <c r="F158" s="64">
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E158" s="75">
+        <v>9801</v>
+      </c>
+      <c r="F158" s="80">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="68"/>
+      <c r="B159" s="83"/>
       <c r="C159" s="28"/>
-      <c r="D159" s="49" t="s">
+      <c r="D159" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E159" s="66"/>
-      <c r="F159" s="64"/>
-    </row>
-    <row r="160" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E159" s="75"/>
+      <c r="F159" s="80"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="68"/>
+      <c r="B160" s="83"/>
       <c r="C160" s="28"/>
       <c r="D160" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E160" s="66"/>
-      <c r="F160" s="64"/>
-    </row>
-    <row r="161" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E160" s="75"/>
+      <c r="F160" s="80"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="68"/>
+      <c r="B161" s="83"/>
       <c r="C161" s="28"/>
       <c r="D161" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E161" s="67"/>
-      <c r="F161" s="64"/>
-    </row>
-    <row r="162" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E161" s="77"/>
+      <c r="F161" s="80"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="68"/>
+      <c r="B162" s="83"/>
       <c r="C162" s="28"/>
       <c r="D162" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E162" s="67"/>
-      <c r="F162" s="64"/>
-    </row>
-    <row r="163" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E162" s="77"/>
+      <c r="F162" s="80"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="68"/>
+      <c r="B163" s="83"/>
       <c r="C163" s="28"/>
       <c r="D163" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E163" s="67"/>
-      <c r="F163" s="64"/>
-    </row>
-    <row r="164" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E163" s="77"/>
+      <c r="F163" s="80"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="68"/>
+      <c r="B164" s="83"/>
       <c r="C164" s="28"/>
       <c r="D164" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E164" s="67"/>
-      <c r="F164" s="64"/>
-    </row>
-    <row r="165" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E164" s="77"/>
+      <c r="F164" s="80"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="68"/>
+      <c r="B165" s="83"/>
       <c r="C165" s="28"/>
       <c r="D165" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E165" s="67"/>
-      <c r="F165" s="64"/>
-    </row>
-    <row r="166" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E165" s="77"/>
+      <c r="F165" s="80"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="68"/>
+      <c r="B166" s="83"/>
       <c r="C166" s="28"/>
       <c r="D166" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E166" s="67"/>
-      <c r="F166" s="64"/>
-    </row>
-    <row r="167" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E166" s="77"/>
+      <c r="F166" s="80"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="68"/>
+      <c r="B167" s="62"/>
       <c r="C167" s="28"/>
       <c r="D167" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E167" s="67"/>
-      <c r="F167" s="64"/>
-    </row>
-    <row r="168" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E167" s="77"/>
+      <c r="F167" s="80"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="68"/>
+      <c r="B168" s="62"/>
       <c r="C168" s="28"/>
       <c r="D168" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E168" s="67"/>
-      <c r="F168" s="32"/>
-    </row>
-    <row r="169" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E168" s="77"/>
+      <c r="F168" s="80"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="68"/>
+      <c r="B169" s="62"/>
       <c r="C169" s="28"/>
       <c r="D169" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E169" s="67"/>
-      <c r="F169" s="32"/>
-    </row>
-    <row r="170" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E169" s="77"/>
+      <c r="F169" s="78"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="68"/>
+      <c r="B170" s="62"/>
       <c r="C170" s="28"/>
       <c r="D170" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E170" s="67"/>
-      <c r="F170" s="32"/>
-    </row>
-    <row r="171" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E170" s="77"/>
+      <c r="F170" s="78"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="68"/>
+      <c r="B171" s="62"/>
       <c r="C171" s="28"/>
       <c r="D171" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E171" s="67"/>
-      <c r="F171" s="32"/>
-    </row>
-    <row r="172" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E171" s="77"/>
+      <c r="F171" s="78"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="68"/>
+      <c r="B172" s="62"/>
       <c r="C172" s="28"/>
-      <c r="D172" s="50" t="s">
+      <c r="D172" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E172" s="67"/>
-      <c r="F172" s="32"/>
-    </row>
-    <row r="173" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E172" s="77"/>
+      <c r="F172" s="78"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="68"/>
+      <c r="B173" s="62"/>
       <c r="C173" s="28"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="67"/>
-      <c r="F173" s="32"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="78"/>
     </row>
     <row r="174" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
-      <c r="B174" s="70"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="38"/>
-      <c r="E174" s="83"/>
-      <c r="F174" s="39"/>
+      <c r="B174" s="63"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="65"/>
+      <c r="F174" s="79"/>
     </row>
     <row r="175" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
-      <c r="B175" s="73"/>
+      <c r="B175" s="64"/>
       <c r="C175" s="7"/>
-      <c r="D175" s="42"/>
-      <c r="E175" s="43"/>
-      <c r="F175" s="40"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="38"/>
     </row>
     <row r="176" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
-      <c r="B176" s="73"/>
+      <c r="B176" s="64"/>
       <c r="C176" s="7"/>
-      <c r="D176" s="42"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="38"/>
     </row>
     <row r="177" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
-      <c r="B177" s="41"/>
+      <c r="B177" s="39"/>
       <c r="C177" s="7"/>
-      <c r="D177" s="42"/>
-      <c r="E177" s="43"/>
-      <c r="F177" s="40"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="41"/>
+      <c r="F177" s="38"/>
     </row>
     <row r="178" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
-      <c r="B178" s="41"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="7"/>
-      <c r="D178" s="42"/>
-      <c r="E178" s="43"/>
-      <c r="F178" s="40"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="41"/>
+      <c r="F178" s="38"/>
     </row>
     <row r="179" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
-      <c r="B179" s="41"/>
+      <c r="B179" s="39"/>
       <c r="C179" s="7"/>
-      <c r="D179" s="42"/>
-      <c r="E179" s="43"/>
-      <c r="F179" s="40"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="38"/>
     </row>
     <row r="180" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
-      <c r="B180" s="41"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="7"/>
-      <c r="D180" s="42"/>
-      <c r="E180" s="43"/>
-      <c r="F180" s="40"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="38"/>
     </row>
     <row r="181" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
-      <c r="B181" s="41"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="7"/>
-      <c r="D181" s="42"/>
-      <c r="E181" s="43"/>
-      <c r="F181" s="40"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="38"/>
     </row>
     <row r="182" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
-      <c r="B182" s="41"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="7"/>
-      <c r="D182" s="42"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="40"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="41"/>
+      <c r="F182" s="38"/>
     </row>
     <row r="183" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
-      <c r="B183" s="41"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="7"/>
-      <c r="D183" s="42"/>
-      <c r="E183" s="43"/>
-      <c r="F183" s="40"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="41"/>
+      <c r="F183" s="38"/>
     </row>
     <row r="184" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
-      <c r="B184" s="41"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="7"/>
-      <c r="D184" s="42"/>
-      <c r="E184" s="43"/>
-      <c r="F184" s="40"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="41"/>
+      <c r="F184" s="38"/>
     </row>
     <row r="185" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
-      <c r="B185" s="41"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="7"/>
-      <c r="D185" s="42"/>
-      <c r="E185" s="43"/>
-      <c r="F185" s="40"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="38"/>
     </row>
     <row r="186" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
-      <c r="B186" s="41"/>
+      <c r="B186" s="39"/>
       <c r="C186" s="7"/>
-      <c r="D186" s="42"/>
-      <c r="E186" s="43"/>
-      <c r="F186" s="40"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="41"/>
+      <c r="F186" s="38"/>
     </row>
     <row r="187" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
-      <c r="B187" s="41"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="7"/>
-      <c r="D187" s="42"/>
-      <c r="E187" s="43"/>
-      <c r="F187" s="40"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="41"/>
+      <c r="F187" s="38"/>
     </row>
     <row r="188" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
-      <c r="B188" s="41"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="7"/>
-      <c r="D188" s="42"/>
-      <c r="E188" s="43"/>
-      <c r="F188" s="40"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="41"/>
+      <c r="F188" s="38"/>
     </row>
     <row r="189" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
-      <c r="B189" s="41"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="7"/>
-      <c r="D189" s="42"/>
-      <c r="E189" s="43"/>
-      <c r="F189" s="40"/>
+      <c r="D189" s="40"/>
+      <c r="E189" s="41"/>
+      <c r="F189" s="38"/>
     </row>
     <row r="190" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
-      <c r="B190" s="41"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="7"/>
-      <c r="D190" s="42"/>
-      <c r="E190" s="43"/>
-      <c r="F190" s="40"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="38"/>
     </row>
     <row r="191" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
-      <c r="B191" s="41"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="7"/>
-      <c r="D191" s="42"/>
-      <c r="E191" s="43"/>
-      <c r="F191" s="40"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="41"/>
+      <c r="F191" s="38"/>
     </row>
     <row r="192" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
-      <c r="B192" s="41"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="7"/>
-      <c r="D192" s="42"/>
-      <c r="E192" s="43"/>
-      <c r="F192" s="40"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="41"/>
+      <c r="F192" s="38"/>
     </row>
     <row r="193" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
-      <c r="B193" s="41"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="7"/>
-      <c r="D193" s="42"/>
-      <c r="E193" s="43"/>
-      <c r="F193" s="40"/>
+      <c r="D193" s="40"/>
+      <c r="E193" s="41"/>
+      <c r="F193" s="38"/>
     </row>
     <row r="194" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
-      <c r="B194" s="41"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="7"/>
-      <c r="D194" s="42"/>
-      <c r="E194" s="43"/>
-      <c r="F194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="41"/>
+      <c r="F194" s="38"/>
     </row>
     <row r="195" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
-      <c r="B195" s="41"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="7"/>
-      <c r="D195" s="42"/>
-      <c r="E195" s="43"/>
-      <c r="F195" s="40"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="41"/>
+      <c r="F195" s="38"/>
     </row>
     <row r="196" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
-      <c r="B196" s="41"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="7"/>
-      <c r="D196" s="42"/>
-      <c r="E196" s="43"/>
-      <c r="F196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="41"/>
+      <c r="F196" s="38"/>
     </row>
     <row r="197" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
-      <c r="B197" s="41"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="7"/>
-      <c r="D197" s="42"/>
-      <c r="E197" s="43"/>
-      <c r="F197" s="40"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="41"/>
+      <c r="F197" s="38"/>
     </row>
     <row r="198" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
-      <c r="B198" s="41"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="7"/>
-      <c r="D198" s="42"/>
-      <c r="E198" s="43"/>
-      <c r="F198" s="40"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="41"/>
+      <c r="F198" s="38"/>
     </row>
     <row r="199" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
-      <c r="B199" s="41"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="7"/>
-      <c r="D199" s="42"/>
-      <c r="E199" s="43"/>
-      <c r="F199" s="40"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="41"/>
+      <c r="F199" s="38"/>
     </row>
     <row r="200" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
-      <c r="B200" s="41"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="7"/>
-      <c r="D200" s="42"/>
-      <c r="E200" s="43"/>
-      <c r="F200" s="40"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="41"/>
+      <c r="F200" s="38"/>
     </row>
     <row r="201" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
-      <c r="B201" s="41"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="7"/>
-      <c r="D201" s="42"/>
-      <c r="E201" s="43"/>
-      <c r="F201" s="40"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="41"/>
+      <c r="F201" s="38"/>
     </row>
     <row r="202" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
-      <c r="B202" s="41"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="7"/>
-      <c r="D202" s="42"/>
-      <c r="E202" s="43"/>
-      <c r="F202" s="40"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="41"/>
+      <c r="F202" s="38"/>
     </row>
     <row r="203" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
-      <c r="B203" s="41"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="7"/>
-      <c r="D203" s="42"/>
-      <c r="E203" s="43"/>
-      <c r="F203" s="40"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="41"/>
+      <c r="F203" s="38"/>
     </row>
     <row r="204" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
-      <c r="B204" s="41"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="7"/>
-      <c r="D204" s="42"/>
-      <c r="E204" s="43"/>
-      <c r="F204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="41"/>
+      <c r="F204" s="38"/>
     </row>
     <row r="205" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
-      <c r="B205" s="41"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="7"/>
-      <c r="D205" s="42"/>
-      <c r="E205" s="43"/>
-      <c r="F205" s="40"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="41"/>
+      <c r="F205" s="38"/>
     </row>
     <row r="206" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
-      <c r="B206" s="41"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="7"/>
-      <c r="D206" s="42"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="40"/>
+      <c r="D206" s="40"/>
+      <c r="E206" s="41"/>
+      <c r="F206" s="38"/>
     </row>
     <row r="207" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
-      <c r="B207" s="41"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="7"/>
-      <c r="D207" s="42"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="40"/>
+      <c r="D207" s="40"/>
+      <c r="E207" s="41"/>
+      <c r="F207" s="38"/>
     </row>
     <row r="208" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
-      <c r="B208" s="41"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="7"/>
-      <c r="D208" s="42"/>
-      <c r="E208" s="43"/>
-      <c r="F208" s="40"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="41"/>
+      <c r="F208" s="38"/>
     </row>
     <row r="209" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
-      <c r="B209" s="41"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="7"/>
-      <c r="D209" s="42"/>
-      <c r="E209" s="43"/>
-      <c r="F209" s="40"/>
+      <c r="D209" s="40"/>
+      <c r="E209" s="41"/>
+      <c r="F209" s="38"/>
     </row>
     <row r="210" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
-      <c r="B210" s="41"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="7"/>
-      <c r="D210" s="42"/>
-      <c r="E210" s="43"/>
-      <c r="F210" s="40"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="41"/>
+      <c r="F210" s="38"/>
     </row>
     <row r="211" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
-      <c r="B211" s="41"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="7"/>
-      <c r="D211" s="42"/>
-      <c r="E211" s="43"/>
-      <c r="F211" s="40"/>
+      <c r="D211" s="40"/>
+      <c r="E211" s="41"/>
+      <c r="F211" s="38"/>
     </row>
     <row r="212" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
-      <c r="B212" s="41"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="7"/>
-      <c r="D212" s="42"/>
-      <c r="E212" s="43"/>
-      <c r="F212" s="40"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="41"/>
+      <c r="F212" s="38"/>
     </row>
     <row r="213" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
-      <c r="B213" s="41"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="7"/>
-      <c r="D213" s="42"/>
-      <c r="E213" s="43"/>
-      <c r="F213" s="40"/>
+      <c r="D213" s="40"/>
+      <c r="E213" s="41"/>
+      <c r="F213" s="38"/>
     </row>
     <row r="214" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
-      <c r="B214" s="41"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="7"/>
-      <c r="D214" s="42"/>
-      <c r="E214" s="43"/>
-      <c r="F214" s="40"/>
+      <c r="D214" s="40"/>
+      <c r="E214" s="41"/>
+      <c r="F214" s="38"/>
     </row>
     <row r="215" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
-      <c r="B215" s="41"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="7"/>
-      <c r="D215" s="42"/>
-      <c r="E215" s="43"/>
-      <c r="F215" s="40"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="41"/>
+      <c r="F215" s="38"/>
     </row>
     <row r="216" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
-      <c r="B216" s="41"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="7"/>
-      <c r="D216" s="42"/>
-      <c r="E216" s="43"/>
-      <c r="F216" s="40"/>
+      <c r="D216" s="40"/>
+      <c r="E216" s="41"/>
+      <c r="F216" s="38"/>
     </row>
     <row r="217" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
-      <c r="B217" s="41"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="7"/>
-      <c r="D217" s="42"/>
-      <c r="E217" s="43"/>
-      <c r="F217" s="40"/>
+      <c r="D217" s="40"/>
+      <c r="E217" s="41"/>
+      <c r="F217" s="38"/>
     </row>
     <row r="218" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
-      <c r="B218" s="41"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="7"/>
-      <c r="D218" s="42"/>
-      <c r="E218" s="43"/>
-      <c r="F218" s="40"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="41"/>
+      <c r="F218" s="38"/>
     </row>
     <row r="219" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
-      <c r="B219" s="41"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="7"/>
-      <c r="D219" s="42"/>
-      <c r="E219" s="43"/>
-      <c r="F219" s="40"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="41"/>
+      <c r="F219" s="38"/>
     </row>
     <row r="220" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
-      <c r="B220" s="41"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="7"/>
-      <c r="D220" s="42"/>
-      <c r="E220" s="43"/>
-      <c r="F220" s="40"/>
+      <c r="D220" s="40"/>
+      <c r="E220" s="41"/>
+      <c r="F220" s="38"/>
     </row>
     <row r="221" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
-      <c r="B221" s="41"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="7"/>
-      <c r="D221" s="42"/>
-      <c r="E221" s="43"/>
-      <c r="F221" s="40"/>
+      <c r="D221" s="40"/>
+      <c r="E221" s="41"/>
+      <c r="F221" s="38"/>
     </row>
     <row r="222" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
-      <c r="B222" s="41"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="7"/>
-      <c r="D222" s="42"/>
-      <c r="E222" s="43"/>
-      <c r="F222" s="40"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="41"/>
+      <c r="F222" s="38"/>
     </row>
     <row r="223" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="41"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="7"/>
-      <c r="D223" s="42"/>
-      <c r="E223" s="43"/>
-      <c r="F223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="41"/>
+      <c r="F223" s="38"/>
     </row>
     <row r="224" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="41"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="7"/>
-      <c r="D224" s="42"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="40"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="41"/>
+      <c r="F224" s="38"/>
     </row>
     <row r="225" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="B225" s="41"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="7"/>
-      <c r="D225" s="42"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="40"/>
+      <c r="D225" s="40"/>
+      <c r="E225" s="41"/>
+      <c r="F225" s="38"/>
     </row>
     <row r="226" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="41"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="7"/>
-      <c r="D226" s="42"/>
-      <c r="E226" s="43"/>
-      <c r="F226" s="40"/>
+      <c r="D226" s="40"/>
+      <c r="E226" s="41"/>
+      <c r="F226" s="38"/>
     </row>
     <row r="227" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="41"/>
+      <c r="B227" s="39"/>
       <c r="C227" s="7"/>
-      <c r="D227" s="42"/>
-      <c r="E227" s="43"/>
-      <c r="F227" s="40"/>
+      <c r="D227" s="40"/>
+      <c r="E227" s="41"/>
+      <c r="F227" s="38"/>
     </row>
     <row r="228" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="41"/>
+      <c r="B228" s="39"/>
       <c r="C228" s="7"/>
-      <c r="D228" s="42"/>
-      <c r="E228" s="43"/>
-      <c r="F228" s="40"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="41"/>
+      <c r="F228" s="38"/>
     </row>
     <row r="229" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="41"/>
+      <c r="B229" s="39"/>
       <c r="C229" s="7"/>
-      <c r="D229" s="42"/>
-      <c r="E229" s="43"/>
-      <c r="F229" s="40"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="41"/>
+      <c r="F229" s="38"/>
     </row>
     <row r="230" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
-      <c r="B230" s="41"/>
+      <c r="B230" s="39"/>
       <c r="C230" s="7"/>
-      <c r="D230" s="42"/>
-      <c r="E230" s="43"/>
-      <c r="F230" s="40"/>
+      <c r="D230" s="40"/>
+      <c r="E230" s="41"/>
+      <c r="F230" s="38"/>
     </row>
     <row r="231" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="41"/>
+      <c r="B231" s="39"/>
       <c r="C231" s="7"/>
-      <c r="D231" s="42"/>
-      <c r="E231" s="43"/>
-      <c r="F231" s="40"/>
+      <c r="D231" s="40"/>
+      <c r="E231" s="41"/>
+      <c r="F231" s="38"/>
     </row>
     <row r="232" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="41"/>
+      <c r="B232" s="39"/>
       <c r="C232" s="7"/>
-      <c r="D232" s="42"/>
-      <c r="E232" s="43"/>
-      <c r="F232" s="40"/>
+      <c r="D232" s="40"/>
+      <c r="E232" s="41"/>
+      <c r="F232" s="38"/>
     </row>
     <row r="233" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="41"/>
+      <c r="B233" s="39"/>
       <c r="C233" s="7"/>
-      <c r="D233" s="42"/>
-      <c r="E233" s="43"/>
-      <c r="F233" s="40"/>
+      <c r="D233" s="40"/>
+      <c r="E233" s="41"/>
+      <c r="F233" s="38"/>
     </row>
     <row r="234" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="41"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="7"/>
-      <c r="D234" s="42"/>
-      <c r="E234" s="43"/>
-      <c r="F234" s="40"/>
+      <c r="D234" s="40"/>
+      <c r="E234" s="41"/>
+      <c r="F234" s="38"/>
     </row>
     <row r="235" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
-      <c r="B235" s="41"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="7"/>
-      <c r="D235" s="42"/>
-      <c r="E235" s="43"/>
-      <c r="F235" s="40"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="41"/>
+      <c r="F235" s="38"/>
     </row>
     <row r="236" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="41"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="7"/>
-      <c r="D236" s="42"/>
-      <c r="E236" s="43"/>
-      <c r="F236" s="40"/>
+      <c r="D236" s="40"/>
+      <c r="E236" s="41"/>
+      <c r="F236" s="38"/>
     </row>
     <row r="237" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="41"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="7"/>
-      <c r="D237" s="42"/>
-      <c r="E237" s="43"/>
-      <c r="F237" s="40"/>
+      <c r="D237" s="40"/>
+      <c r="E237" s="41"/>
+      <c r="F237" s="38"/>
     </row>
     <row r="238" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="41"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="7"/>
-      <c r="D238" s="42"/>
-      <c r="E238" s="43"/>
-      <c r="F238" s="40"/>
+      <c r="D238" s="40"/>
+      <c r="E238" s="41"/>
+      <c r="F238" s="38"/>
     </row>
     <row r="239" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="41"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="7"/>
-      <c r="D239" s="42"/>
-      <c r="E239" s="43"/>
-      <c r="F239" s="40"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="41"/>
+      <c r="F239" s="38"/>
     </row>
     <row r="240" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="41"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="7"/>
-      <c r="D240" s="42"/>
-      <c r="E240" s="43"/>
-      <c r="F240" s="40"/>
+      <c r="D240" s="40"/>
+      <c r="E240" s="41"/>
+      <c r="F240" s="38"/>
     </row>
     <row r="241" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="41"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="7"/>
-      <c r="D241" s="42"/>
-      <c r="E241" s="43"/>
-      <c r="F241" s="40"/>
+      <c r="D241" s="40"/>
+      <c r="E241" s="41"/>
+      <c r="F241" s="38"/>
     </row>
     <row r="242" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
-      <c r="B242" s="41"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="7"/>
-      <c r="D242" s="42"/>
-      <c r="E242" s="43"/>
-      <c r="F242" s="40"/>
+      <c r="D242" s="40"/>
+      <c r="E242" s="41"/>
+      <c r="F242" s="38"/>
     </row>
     <row r="243" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
-      <c r="B243" s="41"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="7"/>
-      <c r="D243" s="42"/>
-      <c r="E243" s="43"/>
-      <c r="F243" s="40"/>
+      <c r="D243" s="40"/>
+      <c r="E243" s="41"/>
+      <c r="F243" s="38"/>
     </row>
     <row r="244" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
-      <c r="B244" s="41"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="7"/>
-      <c r="D244" s="42"/>
-      <c r="E244" s="43"/>
-      <c r="F244" s="40"/>
+      <c r="D244" s="40"/>
+      <c r="E244" s="41"/>
+      <c r="F244" s="38"/>
     </row>
     <row r="245" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
-      <c r="B245" s="41"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="7"/>
-      <c r="D245" s="42"/>
-      <c r="E245" s="43"/>
-      <c r="F245" s="40"/>
+      <c r="D245" s="40"/>
+      <c r="E245" s="41"/>
+      <c r="F245" s="38"/>
     </row>
     <row r="246" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
-      <c r="B246" s="41"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="7"/>
-      <c r="D246" s="42"/>
-      <c r="E246" s="43"/>
-      <c r="F246" s="40"/>
+      <c r="D246" s="40"/>
+      <c r="E246" s="41"/>
+      <c r="F246" s="38"/>
     </row>
     <row r="247" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
-      <c r="B247" s="41"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="7"/>
-      <c r="D247" s="42"/>
-      <c r="E247" s="43"/>
-      <c r="F247" s="40"/>
+      <c r="D247" s="40"/>
+      <c r="E247" s="41"/>
+      <c r="F247" s="38"/>
     </row>
     <row r="248" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
-      <c r="B248" s="41"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="7"/>
-      <c r="D248" s="42"/>
-      <c r="E248" s="43"/>
-      <c r="F248" s="40"/>
+      <c r="D248" s="40"/>
+      <c r="E248" s="41"/>
+      <c r="F248" s="38"/>
     </row>
     <row r="249" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
-      <c r="B249" s="41"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="7"/>
-      <c r="D249" s="42"/>
-      <c r="E249" s="43"/>
-      <c r="F249" s="40"/>
+      <c r="D249" s="40"/>
+      <c r="E249" s="41"/>
+      <c r="F249" s="38"/>
     </row>
     <row r="250" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
-      <c r="B250" s="41"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="7"/>
-      <c r="D250" s="42"/>
-      <c r="E250" s="43"/>
-      <c r="F250" s="40"/>
+      <c r="D250" s="40"/>
+      <c r="E250" s="41"/>
+      <c r="F250" s="38"/>
     </row>
     <row r="251" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
-      <c r="B251" s="41"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="7"/>
-      <c r="D251" s="42"/>
-      <c r="E251" s="43"/>
-      <c r="F251" s="40"/>
+      <c r="D251" s="40"/>
+      <c r="E251" s="41"/>
+      <c r="F251" s="38"/>
     </row>
     <row r="252" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
-      <c r="B252" s="41"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="7"/>
-      <c r="D252" s="42"/>
-      <c r="E252" s="43"/>
-      <c r="F252" s="40"/>
+      <c r="D252" s="40"/>
+      <c r="E252" s="41"/>
+      <c r="F252" s="38"/>
     </row>
     <row r="253" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
-      <c r="B253" s="41"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="7"/>
-      <c r="D253" s="42"/>
-      <c r="E253" s="43"/>
-      <c r="F253" s="40"/>
+      <c r="D253" s="40"/>
+      <c r="E253" s="41"/>
+      <c r="F253" s="38"/>
     </row>
     <row r="254" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
-      <c r="B254" s="41"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="7"/>
-      <c r="D254" s="42"/>
-      <c r="E254" s="43"/>
-      <c r="F254" s="40"/>
+      <c r="D254" s="40"/>
+      <c r="E254" s="41"/>
+      <c r="F254" s="38"/>
     </row>
     <row r="255" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
-      <c r="B255" s="41"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="7"/>
-      <c r="D255" s="42"/>
-      <c r="E255" s="43"/>
-      <c r="F255" s="40"/>
+      <c r="D255" s="40"/>
+      <c r="E255" s="41"/>
+      <c r="F255" s="38"/>
     </row>
     <row r="256" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
-      <c r="B256" s="41"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="7"/>
-      <c r="D256" s="42"/>
-      <c r="E256" s="43"/>
-      <c r="F256" s="40"/>
+      <c r="D256" s="40"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="38"/>
     </row>
     <row r="257" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="41"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="7"/>
-      <c r="D257" s="42"/>
-      <c r="E257" s="43"/>
-      <c r="F257" s="40"/>
+      <c r="D257" s="40"/>
+      <c r="E257" s="41"/>
+      <c r="F257" s="38"/>
     </row>
     <row r="258" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="41"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="7"/>
-      <c r="D258" s="42"/>
-      <c r="E258" s="43"/>
-      <c r="F258" s="40"/>
+      <c r="D258" s="40"/>
+      <c r="E258" s="41"/>
+      <c r="F258" s="38"/>
     </row>
     <row r="259" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="41"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="7"/>
-      <c r="D259" s="42"/>
-      <c r="E259" s="43"/>
-      <c r="F259" s="40"/>
+      <c r="D259" s="40"/>
+      <c r="E259" s="41"/>
+      <c r="F259" s="38"/>
     </row>
     <row r="260" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="41"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="7"/>
-      <c r="D260" s="42"/>
-      <c r="E260" s="43"/>
-      <c r="F260" s="40"/>
+      <c r="D260" s="40"/>
+      <c r="E260" s="41"/>
+      <c r="F260" s="38"/>
     </row>
     <row r="261" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
-      <c r="B261" s="41"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="7"/>
-      <c r="D261" s="42"/>
-      <c r="E261" s="43"/>
-      <c r="F261" s="40"/>
+      <c r="D261" s="40"/>
+      <c r="E261" s="41"/>
+      <c r="F261" s="38"/>
     </row>
     <row r="262" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
-      <c r="B262" s="41"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="7"/>
-      <c r="D262" s="42"/>
-      <c r="E262" s="43"/>
-      <c r="F262" s="40"/>
+      <c r="D262" s="40"/>
+      <c r="E262" s="41"/>
+      <c r="F262" s="38"/>
     </row>
     <row r="263" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
-      <c r="B263" s="41"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="7"/>
-      <c r="D263" s="42"/>
-      <c r="E263" s="43"/>
-      <c r="F263" s="40"/>
+      <c r="D263" s="40"/>
+      <c r="E263" s="41"/>
+      <c r="F263" s="38"/>
     </row>
     <row r="264" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
-      <c r="B264" s="41"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="7"/>
-      <c r="D264" s="42"/>
-      <c r="E264" s="43"/>
-      <c r="F264" s="40"/>
+      <c r="D264" s="40"/>
+      <c r="E264" s="41"/>
+      <c r="F264" s="38"/>
     </row>
     <row r="265" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
-      <c r="B265" s="41"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="7"/>
-      <c r="D265" s="42"/>
-      <c r="E265" s="43"/>
-      <c r="F265" s="40"/>
+      <c r="D265" s="40"/>
+      <c r="E265" s="41"/>
+      <c r="F265" s="38"/>
     </row>
     <row r="266" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
-      <c r="B266" s="41"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="7"/>
-      <c r="D266" s="42"/>
-      <c r="E266" s="43"/>
-      <c r="F266" s="40"/>
+      <c r="D266" s="40"/>
+      <c r="E266" s="41"/>
+      <c r="F266" s="38"/>
     </row>
     <row r="267" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
-      <c r="B267" s="41"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="7"/>
-      <c r="D267" s="42"/>
-      <c r="E267" s="43"/>
-      <c r="F267" s="40"/>
+      <c r="D267" s="40"/>
+      <c r="E267" s="41"/>
+      <c r="F267" s="38"/>
     </row>
     <row r="268" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
-      <c r="B268" s="41"/>
+      <c r="B268" s="39"/>
       <c r="C268" s="7"/>
-      <c r="D268" s="42"/>
-      <c r="E268" s="43"/>
-      <c r="F268" s="40"/>
+      <c r="D268" s="40"/>
+      <c r="E268" s="41"/>
+      <c r="F268" s="38"/>
     </row>
     <row r="269" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
-      <c r="B269" s="41"/>
+      <c r="B269" s="39"/>
       <c r="C269" s="7"/>
-      <c r="D269" s="42"/>
-      <c r="E269" s="43"/>
-      <c r="F269" s="40"/>
+      <c r="D269" s="40"/>
+      <c r="E269" s="41"/>
+      <c r="F269" s="38"/>
     </row>
     <row r="270" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
-      <c r="B270" s="41"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="7"/>
-      <c r="D270" s="42"/>
-      <c r="E270" s="43"/>
-      <c r="F270" s="40"/>
+      <c r="D270" s="40"/>
+      <c r="E270" s="41"/>
+      <c r="F270" s="38"/>
     </row>
     <row r="271" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
-      <c r="B271" s="41"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="7"/>
-      <c r="D271" s="42"/>
-      <c r="E271" s="43"/>
-      <c r="F271" s="40"/>
+      <c r="D271" s="40"/>
+      <c r="E271" s="41"/>
+      <c r="F271" s="38"/>
     </row>
     <row r="272" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
-      <c r="B272" s="41"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="7"/>
-      <c r="D272" s="42"/>
-      <c r="E272" s="43"/>
-      <c r="F272" s="40"/>
+      <c r="D272" s="40"/>
+      <c r="E272" s="41"/>
+      <c r="F272" s="38"/>
     </row>
     <row r="273" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
-      <c r="B273" s="41"/>
+      <c r="B273" s="39"/>
       <c r="C273" s="7"/>
-      <c r="D273" s="42"/>
-      <c r="E273" s="43"/>
-      <c r="F273" s="40"/>
+      <c r="D273" s="40"/>
+      <c r="E273" s="41"/>
+      <c r="F273" s="38"/>
     </row>
     <row r="274" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
-      <c r="B274" s="41"/>
+      <c r="B274" s="39"/>
       <c r="C274" s="7"/>
-      <c r="D274" s="42"/>
-      <c r="E274" s="43"/>
-      <c r="F274" s="40"/>
+      <c r="D274" s="40"/>
+      <c r="E274" s="41"/>
+      <c r="F274" s="38"/>
     </row>
     <row r="275" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
-      <c r="B275" s="41"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="7"/>
-      <c r="D275" s="42"/>
-      <c r="E275" s="43"/>
-      <c r="F275" s="40"/>
+      <c r="D275" s="40"/>
+      <c r="E275" s="41"/>
+      <c r="F275" s="38"/>
     </row>
     <row r="276" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
-      <c r="B276" s="41"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="7"/>
-      <c r="D276" s="42"/>
-      <c r="E276" s="43"/>
-      <c r="F276" s="40"/>
+      <c r="D276" s="40"/>
+      <c r="E276" s="41"/>
+      <c r="F276" s="38"/>
     </row>
     <row r="277" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
-      <c r="B277" s="41"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="7"/>
-      <c r="D277" s="42"/>
-      <c r="E277" s="43"/>
-      <c r="F277" s="40"/>
+      <c r="D277" s="40"/>
+      <c r="E277" s="41"/>
+      <c r="F277" s="38"/>
     </row>
     <row r="278" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
-      <c r="B278" s="41"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="7"/>
-      <c r="D278" s="42"/>
-      <c r="E278" s="43"/>
-      <c r="F278" s="40"/>
+      <c r="D278" s="40"/>
+      <c r="E278" s="41"/>
+      <c r="F278" s="38"/>
     </row>
     <row r="279" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
-      <c r="B279" s="41"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="7"/>
-      <c r="D279" s="42"/>
-      <c r="E279" s="43"/>
-      <c r="F279" s="40"/>
+      <c r="D279" s="40"/>
+      <c r="E279" s="41"/>
+      <c r="F279" s="38"/>
     </row>
     <row r="280" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
-      <c r="B280" s="41"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="7"/>
-      <c r="D280" s="42"/>
-      <c r="E280" s="43"/>
-      <c r="F280" s="40"/>
+      <c r="D280" s="40"/>
+      <c r="E280" s="41"/>
+      <c r="F280" s="38"/>
     </row>
     <row r="281" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
-      <c r="B281" s="41"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="7"/>
-      <c r="D281" s="42"/>
-      <c r="E281" s="43"/>
-      <c r="F281" s="40"/>
+      <c r="D281" s="40"/>
+      <c r="E281" s="41"/>
+      <c r="F281" s="38"/>
     </row>
     <row r="282" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
-      <c r="B282" s="41"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="7"/>
-      <c r="D282" s="42"/>
-      <c r="E282" s="43"/>
-      <c r="F282" s="40"/>
+      <c r="D282" s="40"/>
+      <c r="E282" s="41"/>
+      <c r="F282" s="38"/>
     </row>
     <row r="283" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
-      <c r="B283" s="41"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="7"/>
-      <c r="D283" s="42"/>
-      <c r="E283" s="43"/>
-      <c r="F283" s="40"/>
+      <c r="D283" s="40"/>
+      <c r="E283" s="41"/>
+      <c r="F283" s="38"/>
     </row>
     <row r="284" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
-      <c r="B284" s="41"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="7"/>
-      <c r="D284" s="42"/>
-      <c r="E284" s="43"/>
-      <c r="F284" s="40"/>
+      <c r="D284" s="40"/>
+      <c r="E284" s="41"/>
+      <c r="F284" s="38"/>
     </row>
     <row r="285" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
-      <c r="B285" s="41"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="7"/>
-      <c r="D285" s="42"/>
-      <c r="E285" s="43"/>
-      <c r="F285" s="40"/>
+      <c r="D285" s="40"/>
+      <c r="E285" s="41"/>
+      <c r="F285" s="38"/>
     </row>
     <row r="286" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
-      <c r="B286" s="41"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="7"/>
-      <c r="D286" s="42"/>
-      <c r="E286" s="43"/>
-      <c r="F286" s="40"/>
+      <c r="D286" s="40"/>
+      <c r="E286" s="41"/>
+      <c r="F286" s="38"/>
     </row>
     <row r="287" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
-      <c r="B287" s="41"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="7"/>
-      <c r="D287" s="42"/>
-      <c r="E287" s="43"/>
-      <c r="F287" s="40"/>
+      <c r="D287" s="40"/>
+      <c r="E287" s="41"/>
+      <c r="F287" s="38"/>
     </row>
     <row r="288" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
-      <c r="B288" s="41"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="7"/>
-      <c r="D288" s="42"/>
-      <c r="E288" s="43"/>
-      <c r="F288" s="40"/>
+      <c r="D288" s="40"/>
+      <c r="E288" s="41"/>
+      <c r="F288" s="38"/>
     </row>
     <row r="289" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
-      <c r="B289" s="41"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="7"/>
-      <c r="D289" s="42"/>
-      <c r="E289" s="43"/>
-      <c r="F289" s="40"/>
+      <c r="D289" s="40"/>
+      <c r="E289" s="41"/>
+      <c r="F289" s="38"/>
     </row>
     <row r="290" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
-      <c r="B290" s="41"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="7"/>
-      <c r="D290" s="42"/>
-      <c r="E290" s="43"/>
-      <c r="F290" s="40"/>
+      <c r="D290" s="40"/>
+      <c r="E290" s="41"/>
+      <c r="F290" s="38"/>
     </row>
     <row r="291" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
-      <c r="B291" s="41"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="7"/>
-      <c r="D291" s="42"/>
-      <c r="E291" s="43"/>
-      <c r="F291" s="40"/>
+      <c r="D291" s="40"/>
+      <c r="E291" s="41"/>
+      <c r="F291" s="38"/>
     </row>
     <row r="292" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
-      <c r="B292" s="41"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="7"/>
-      <c r="D292" s="42"/>
-      <c r="E292" s="43"/>
-      <c r="F292" s="40"/>
+      <c r="D292" s="40"/>
+      <c r="E292" s="41"/>
+      <c r="F292" s="38"/>
     </row>
     <row r="293" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
-      <c r="B293" s="41"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="7"/>
-      <c r="D293" s="42"/>
-      <c r="E293" s="43"/>
-      <c r="F293" s="40"/>
+      <c r="D293" s="40"/>
+      <c r="E293" s="41"/>
+      <c r="F293" s="38"/>
     </row>
     <row r="294" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
-      <c r="B294" s="41"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="7"/>
-      <c r="D294" s="42"/>
-      <c r="E294" s="43"/>
-      <c r="F294" s="40"/>
+      <c r="D294" s="40"/>
+      <c r="E294" s="41"/>
+      <c r="F294" s="38"/>
     </row>
     <row r="295" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
-      <c r="B295" s="41"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="7"/>
-      <c r="D295" s="42"/>
-      <c r="E295" s="43"/>
-      <c r="F295" s="40"/>
+      <c r="D295" s="40"/>
+      <c r="E295" s="41"/>
+      <c r="F295" s="38"/>
     </row>
     <row r="296" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
-      <c r="B296" s="41"/>
+      <c r="B296" s="39"/>
       <c r="C296" s="7"/>
-      <c r="D296" s="42"/>
-      <c r="E296" s="43"/>
-      <c r="F296" s="40"/>
+      <c r="D296" s="40"/>
+      <c r="E296" s="41"/>
+      <c r="F296" s="38"/>
     </row>
     <row r="297" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
-      <c r="B297" s="41"/>
+      <c r="B297" s="39"/>
       <c r="C297" s="7"/>
-      <c r="D297" s="42"/>
-      <c r="E297" s="43"/>
-      <c r="F297" s="40"/>
+      <c r="D297" s="40"/>
+      <c r="E297" s="41"/>
+      <c r="F297" s="38"/>
     </row>
     <row r="298" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
-      <c r="B298" s="41"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="7"/>
-      <c r="D298" s="42"/>
-      <c r="E298" s="43"/>
-      <c r="F298" s="40"/>
+      <c r="D298" s="40"/>
+      <c r="E298" s="41"/>
+      <c r="F298" s="38"/>
     </row>
     <row r="299" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
-      <c r="B299" s="41"/>
+      <c r="B299" s="39"/>
       <c r="C299" s="7"/>
-      <c r="D299" s="42"/>
-      <c r="E299" s="43"/>
-      <c r="F299" s="40"/>
+      <c r="D299" s="40"/>
+      <c r="E299" s="41"/>
+      <c r="F299" s="38"/>
     </row>
     <row r="300" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
-      <c r="B300" s="41"/>
+      <c r="B300" s="39"/>
       <c r="C300" s="7"/>
-      <c r="D300" s="42"/>
-      <c r="E300" s="43"/>
-      <c r="F300" s="40"/>
+      <c r="D300" s="40"/>
+      <c r="E300" s="41"/>
+      <c r="F300" s="38"/>
     </row>
     <row r="301" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
-      <c r="B301" s="41"/>
+      <c r="B301" s="39"/>
       <c r="C301" s="7"/>
-      <c r="D301" s="42"/>
-      <c r="E301" s="43"/>
-      <c r="F301" s="40"/>
+      <c r="D301" s="40"/>
+      <c r="E301" s="41"/>
+      <c r="F301" s="38"/>
     </row>
     <row r="302" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="7"/>
-      <c r="B302" s="41"/>
+      <c r="B302" s="39"/>
       <c r="C302" s="7"/>
-      <c r="D302" s="42"/>
-      <c r="E302" s="43"/>
-      <c r="F302" s="40"/>
+      <c r="D302" s="40"/>
+      <c r="E302" s="41"/>
+      <c r="F302" s="38"/>
     </row>
     <row r="303" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
-      <c r="B303" s="41"/>
+      <c r="B303" s="39"/>
       <c r="C303" s="7"/>
-      <c r="D303" s="42"/>
-      <c r="E303" s="43"/>
-      <c r="F303" s="40"/>
+      <c r="D303" s="40"/>
+      <c r="E303" s="41"/>
+      <c r="F303" s="38"/>
     </row>
     <row r="304" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
-      <c r="B304" s="41"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="7"/>
-      <c r="D304" s="42"/>
-      <c r="E304" s="43"/>
-      <c r="F304" s="40"/>
+      <c r="D304" s="40"/>
+      <c r="E304" s="41"/>
+      <c r="F304" s="38"/>
     </row>
     <row r="305" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
-      <c r="B305" s="41"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="7"/>
-      <c r="D305" s="42"/>
-      <c r="E305" s="43"/>
-      <c r="F305" s="40"/>
+      <c r="D305" s="40"/>
+      <c r="E305" s="41"/>
+      <c r="F305" s="38"/>
     </row>
     <row r="306" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
-      <c r="B306" s="41"/>
+      <c r="B306" s="39"/>
       <c r="C306" s="7"/>
-      <c r="D306" s="42"/>
-      <c r="E306" s="43"/>
-      <c r="F306" s="40"/>
+      <c r="D306" s="40"/>
+      <c r="E306" s="41"/>
+      <c r="F306" s="38"/>
     </row>
     <row r="307" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
-      <c r="B307" s="41"/>
+      <c r="B307" s="39"/>
       <c r="C307" s="7"/>
-      <c r="D307" s="42"/>
-      <c r="E307" s="43"/>
-      <c r="F307" s="40"/>
+      <c r="D307" s="40"/>
+      <c r="E307" s="41"/>
+      <c r="F307" s="38"/>
     </row>
     <row r="308" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="7"/>
-      <c r="B308" s="41"/>
+      <c r="B308" s="39"/>
       <c r="C308" s="7"/>
-      <c r="D308" s="42"/>
-      <c r="E308" s="43"/>
-      <c r="F308" s="40"/>
+      <c r="D308" s="40"/>
+      <c r="E308" s="41"/>
+      <c r="F308" s="38"/>
     </row>
     <row r="309" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
-      <c r="B309" s="41"/>
+      <c r="B309" s="39"/>
       <c r="C309" s="7"/>
-      <c r="D309" s="42"/>
-      <c r="E309" s="43"/>
-      <c r="F309" s="40"/>
+      <c r="D309" s="40"/>
+      <c r="E309" s="41"/>
+      <c r="F309" s="38"/>
     </row>
     <row r="310" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="7"/>
-      <c r="B310" s="41"/>
+      <c r="B310" s="39"/>
       <c r="C310" s="7"/>
-      <c r="D310" s="42"/>
-      <c r="E310" s="43"/>
-      <c r="F310" s="40"/>
+      <c r="D310" s="40"/>
+      <c r="E310" s="41"/>
+      <c r="F310" s="38"/>
     </row>
     <row r="311" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="7"/>
-      <c r="B311" s="41"/>
+      <c r="B311" s="39"/>
       <c r="C311" s="7"/>
-      <c r="D311" s="42"/>
-      <c r="E311" s="43"/>
-      <c r="F311" s="40"/>
+      <c r="D311" s="40"/>
+      <c r="E311" s="41"/>
+      <c r="F311" s="38"/>
     </row>
     <row r="312" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="7"/>
-      <c r="B312" s="41"/>
+      <c r="B312" s="39"/>
       <c r="C312" s="7"/>
-      <c r="D312" s="42"/>
-      <c r="E312" s="43"/>
-      <c r="F312" s="40"/>
+      <c r="D312" s="40"/>
+      <c r="E312" s="41"/>
+      <c r="F312" s="38"/>
     </row>
     <row r="313" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="7"/>
-      <c r="B313" s="41"/>
+      <c r="B313" s="39"/>
       <c r="C313" s="7"/>
-      <c r="D313" s="42"/>
-      <c r="E313" s="43"/>
-      <c r="F313" s="40"/>
+      <c r="D313" s="40"/>
+      <c r="E313" s="41"/>
+      <c r="F313" s="38"/>
     </row>
     <row r="314" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
-      <c r="B314" s="41"/>
+      <c r="B314" s="39"/>
       <c r="C314" s="7"/>
-      <c r="D314" s="42"/>
-      <c r="E314" s="43"/>
-      <c r="F314" s="40"/>
+      <c r="D314" s="40"/>
+      <c r="E314" s="41"/>
+      <c r="F314" s="38"/>
     </row>
     <row r="315" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
-      <c r="B315" s="41"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="7"/>
-      <c r="D315" s="42"/>
-      <c r="E315" s="43"/>
-      <c r="F315" s="40"/>
+      <c r="D315" s="40"/>
+      <c r="E315" s="41"/>
+      <c r="F315" s="38"/>
     </row>
     <row r="316" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="7"/>
-      <c r="B316" s="41"/>
+      <c r="B316" s="39"/>
       <c r="C316" s="7"/>
-      <c r="D316" s="42"/>
-      <c r="E316" s="43"/>
-      <c r="F316" s="40"/>
+      <c r="D316" s="40"/>
+      <c r="E316" s="41"/>
+      <c r="F316" s="38"/>
     </row>
     <row r="317" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
-      <c r="B317" s="41"/>
+      <c r="B317" s="39"/>
       <c r="C317" s="7"/>
-      <c r="D317" s="42"/>
-      <c r="E317" s="43"/>
-      <c r="F317" s="40"/>
+      <c r="D317" s="40"/>
+      <c r="E317" s="41"/>
+      <c r="F317" s="38"/>
     </row>
     <row r="318" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
-      <c r="B318" s="41"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="7"/>
-      <c r="D318" s="42"/>
-      <c r="E318" s="43"/>
-      <c r="F318" s="40"/>
+      <c r="D318" s="40"/>
+      <c r="E318" s="41"/>
+      <c r="F318" s="38"/>
     </row>
     <row r="319" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
-      <c r="B319" s="41"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="7"/>
-      <c r="D319" s="42"/>
-      <c r="E319" s="43"/>
-      <c r="F319" s="40"/>
+      <c r="D319" s="40"/>
+      <c r="E319" s="41"/>
+      <c r="F319" s="38"/>
     </row>
     <row r="320" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
-      <c r="B320" s="41"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="7"/>
-      <c r="D320" s="42"/>
-      <c r="E320" s="43"/>
-      <c r="F320" s="40"/>
+      <c r="D320" s="40"/>
+      <c r="E320" s="41"/>
+      <c r="F320" s="38"/>
     </row>
     <row r="321" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
-      <c r="B321" s="41"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="7"/>
-      <c r="D321" s="42"/>
-      <c r="E321" s="43"/>
-      <c r="F321" s="40"/>
+      <c r="D321" s="40"/>
+      <c r="E321" s="41"/>
+      <c r="F321" s="38"/>
     </row>
     <row r="322" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
-      <c r="B322" s="41"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="7"/>
-      <c r="D322" s="42"/>
-      <c r="E322" s="43"/>
-      <c r="F322" s="40"/>
+      <c r="D322" s="40"/>
+      <c r="E322" s="41"/>
+      <c r="F322" s="38"/>
     </row>
     <row r="323" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
-      <c r="B323" s="41"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="7"/>
-      <c r="D323" s="42"/>
-      <c r="E323" s="43"/>
-      <c r="F323" s="40"/>
+      <c r="D323" s="40"/>
+      <c r="E323" s="41"/>
+      <c r="F323" s="38"/>
     </row>
     <row r="324" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
-      <c r="B324" s="41"/>
+      <c r="B324" s="39"/>
       <c r="C324" s="7"/>
-      <c r="D324" s="42"/>
-      <c r="E324" s="43"/>
-      <c r="F324" s="40"/>
+      <c r="D324" s="40"/>
+      <c r="E324" s="41"/>
+      <c r="F324" s="38"/>
     </row>
     <row r="325" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
-      <c r="B325" s="41"/>
+      <c r="B325" s="39"/>
       <c r="C325" s="7"/>
-      <c r="D325" s="42"/>
-      <c r="E325" s="43"/>
-      <c r="F325" s="40"/>
+      <c r="D325" s="40"/>
+      <c r="E325" s="41"/>
+      <c r="F325" s="38"/>
     </row>
     <row r="326" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
-      <c r="B326" s="41"/>
+      <c r="B326" s="39"/>
       <c r="C326" s="7"/>
-      <c r="D326" s="42"/>
-      <c r="E326" s="43"/>
-      <c r="F326" s="40"/>
+      <c r="D326" s="40"/>
+      <c r="E326" s="41"/>
+      <c r="F326" s="38"/>
     </row>
     <row r="327" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
-      <c r="B327" s="41"/>
+      <c r="B327" s="39"/>
       <c r="C327" s="7"/>
-      <c r="D327" s="42"/>
-      <c r="E327" s="43"/>
-      <c r="F327" s="40"/>
+      <c r="D327" s="40"/>
+      <c r="E327" s="41"/>
+      <c r="F327" s="38"/>
     </row>
     <row r="328" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
-      <c r="B328" s="41"/>
+      <c r="B328" s="39"/>
       <c r="C328" s="7"/>
-      <c r="D328" s="42"/>
-      <c r="E328" s="43"/>
-      <c r="F328" s="40"/>
+      <c r="D328" s="40"/>
+      <c r="E328" s="41"/>
+      <c r="F328" s="38"/>
     </row>
     <row r="329" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="7"/>
-      <c r="B329" s="41"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="7"/>
-      <c r="D329" s="42"/>
-      <c r="E329" s="43"/>
-      <c r="F329" s="40"/>
+      <c r="D329" s="40"/>
+      <c r="E329" s="41"/>
+      <c r="F329" s="38"/>
     </row>
     <row r="330" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="7"/>
-      <c r="B330" s="41"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="7"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="43"/>
-      <c r="F330" s="40"/>
+      <c r="D330" s="40"/>
+      <c r="E330" s="41"/>
+      <c r="F330" s="38"/>
     </row>
     <row r="331" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="7"/>
-      <c r="B331" s="41"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="7"/>
-      <c r="D331" s="42"/>
-      <c r="E331" s="43"/>
-      <c r="F331" s="40"/>
+      <c r="D331" s="40"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="38"/>
     </row>
     <row r="332" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
-      <c r="B332" s="41"/>
+      <c r="B332" s="39"/>
       <c r="C332" s="7"/>
-      <c r="D332" s="42"/>
-      <c r="E332" s="43"/>
-      <c r="F332" s="40"/>
+      <c r="D332" s="40"/>
+      <c r="E332" s="41"/>
+      <c r="F332" s="38"/>
     </row>
     <row r="333" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
-      <c r="B333" s="41"/>
+      <c r="B333" s="39"/>
       <c r="C333" s="7"/>
-      <c r="D333" s="42"/>
-      <c r="E333" s="43"/>
-      <c r="F333" s="40"/>
+      <c r="D333" s="40"/>
+      <c r="E333" s="41"/>
+      <c r="F333" s="38"/>
     </row>
     <row r="334" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
-      <c r="B334" s="41"/>
+      <c r="B334" s="39"/>
       <c r="C334" s="7"/>
-      <c r="D334" s="42"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="40"/>
+      <c r="D334" s="40"/>
+      <c r="E334" s="41"/>
+      <c r="F334" s="38"/>
     </row>
     <row r="335" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="7"/>
-      <c r="B335" s="41"/>
+      <c r="B335" s="39"/>
       <c r="C335" s="7"/>
-      <c r="D335" s="42"/>
-      <c r="E335" s="43"/>
-      <c r="F335" s="40"/>
+      <c r="D335" s="40"/>
+      <c r="E335" s="41"/>
+      <c r="F335" s="38"/>
     </row>
     <row r="336" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
-      <c r="B336" s="41"/>
+      <c r="B336" s="39"/>
       <c r="C336" s="7"/>
-      <c r="D336" s="42"/>
-      <c r="E336" s="43"/>
-      <c r="F336" s="40"/>
+      <c r="D336" s="40"/>
+      <c r="E336" s="41"/>
+      <c r="F336" s="38"/>
     </row>
     <row r="337" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="7"/>
-      <c r="B337" s="41"/>
+      <c r="B337" s="39"/>
       <c r="C337" s="7"/>
-      <c r="D337" s="42"/>
-      <c r="E337" s="43"/>
-      <c r="F337" s="40"/>
+      <c r="D337" s="40"/>
+      <c r="E337" s="41"/>
+      <c r="F337" s="38"/>
     </row>
     <row r="338" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="7"/>
-      <c r="B338" s="41"/>
+      <c r="B338" s="39"/>
       <c r="C338" s="7"/>
-      <c r="D338" s="42"/>
-      <c r="E338" s="43"/>
-      <c r="F338" s="40"/>
+      <c r="D338" s="40"/>
+      <c r="E338" s="41"/>
+      <c r="F338" s="38"/>
     </row>
     <row r="339" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="7"/>
-      <c r="B339" s="41"/>
+      <c r="B339" s="39"/>
       <c r="C339" s="7"/>
-      <c r="D339" s="42"/>
-      <c r="E339" s="43"/>
-      <c r="F339" s="40"/>
+      <c r="D339" s="40"/>
+      <c r="E339" s="41"/>
+      <c r="F339" s="38"/>
     </row>
     <row r="340" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="7"/>
-      <c r="B340" s="41"/>
+      <c r="B340" s="39"/>
       <c r="C340" s="7"/>
-      <c r="D340" s="42"/>
-      <c r="E340" s="43"/>
-      <c r="F340" s="40"/>
+      <c r="D340" s="40"/>
+      <c r="E340" s="41"/>
+      <c r="F340" s="38"/>
     </row>
     <row r="341" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="7"/>
-      <c r="B341" s="41"/>
+      <c r="B341" s="39"/>
       <c r="C341" s="7"/>
-      <c r="D341" s="42"/>
-      <c r="E341" s="43"/>
-      <c r="F341" s="40"/>
+      <c r="D341" s="40"/>
+      <c r="E341" s="41"/>
+      <c r="F341" s="38"/>
     </row>
     <row r="342" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="7"/>
-      <c r="B342" s="41"/>
+      <c r="B342" s="39"/>
       <c r="C342" s="7"/>
-      <c r="D342" s="42"/>
-      <c r="E342" s="43"/>
-      <c r="F342" s="40"/>
+      <c r="D342" s="40"/>
+      <c r="E342" s="41"/>
+      <c r="F342" s="38"/>
     </row>
     <row r="343" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="7"/>
-      <c r="B343" s="41"/>
+      <c r="B343" s="39"/>
       <c r="C343" s="7"/>
-      <c r="D343" s="42"/>
-      <c r="E343" s="43"/>
-      <c r="F343" s="40"/>
+      <c r="D343" s="40"/>
+      <c r="E343" s="41"/>
+      <c r="F343" s="38"/>
     </row>
     <row r="344" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="7"/>
-      <c r="B344" s="41"/>
+      <c r="B344" s="39"/>
       <c r="C344" s="7"/>
-      <c r="D344" s="42"/>
-      <c r="E344" s="43"/>
-      <c r="F344" s="40"/>
+      <c r="D344" s="40"/>
+      <c r="E344" s="41"/>
+      <c r="F344" s="38"/>
     </row>
     <row r="345" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
-      <c r="B345" s="41"/>
+      <c r="B345" s="39"/>
       <c r="C345" s="7"/>
-      <c r="D345" s="42"/>
-      <c r="E345" s="43"/>
-      <c r="F345" s="40"/>
+      <c r="D345" s="40"/>
+      <c r="E345" s="41"/>
+      <c r="F345" s="38"/>
     </row>
     <row r="346" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="7"/>
-      <c r="B346" s="41"/>
+      <c r="B346" s="39"/>
       <c r="C346" s="7"/>
-      <c r="D346" s="42"/>
-      <c r="E346" s="43"/>
-      <c r="F346" s="40"/>
+      <c r="D346" s="40"/>
+      <c r="E346" s="41"/>
+      <c r="F346" s="38"/>
     </row>
     <row r="347" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="7"/>
-      <c r="B347" s="41"/>
+      <c r="B347" s="39"/>
       <c r="C347" s="7"/>
-      <c r="D347" s="42"/>
-      <c r="E347" s="43"/>
-      <c r="F347" s="40"/>
+      <c r="D347" s="40"/>
+      <c r="E347" s="41"/>
+      <c r="F347" s="38"/>
     </row>
     <row r="348" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="7"/>
-      <c r="B348" s="41"/>
+      <c r="B348" s="39"/>
       <c r="C348" s="7"/>
-      <c r="D348" s="42"/>
-      <c r="E348" s="43"/>
-      <c r="F348" s="40"/>
+      <c r="D348" s="40"/>
+      <c r="E348" s="41"/>
+      <c r="F348" s="38"/>
     </row>
     <row r="349" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
-      <c r="B349" s="41"/>
+      <c r="B349" s="39"/>
       <c r="C349" s="7"/>
-      <c r="D349" s="42"/>
-      <c r="E349" s="43"/>
-      <c r="F349" s="40"/>
+      <c r="D349" s="40"/>
+      <c r="E349" s="41"/>
+      <c r="F349" s="38"/>
     </row>
     <row r="350" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
-      <c r="B350" s="41"/>
+      <c r="B350" s="39"/>
       <c r="C350" s="7"/>
-      <c r="D350" s="42"/>
-      <c r="E350" s="43"/>
-      <c r="F350" s="40"/>
+      <c r="D350" s="40"/>
+      <c r="E350" s="41"/>
+      <c r="F350" s="38"/>
     </row>
     <row r="351" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="7"/>
-      <c r="B351" s="41"/>
+      <c r="B351" s="39"/>
       <c r="C351" s="7"/>
-      <c r="D351" s="42"/>
-      <c r="E351" s="43"/>
-      <c r="F351" s="40"/>
+      <c r="D351" s="40"/>
+      <c r="E351" s="41"/>
+      <c r="F351" s="38"/>
     </row>
     <row r="352" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
-      <c r="B352" s="41"/>
+      <c r="B352" s="39"/>
       <c r="C352" s="7"/>
-      <c r="D352" s="42"/>
-      <c r="E352" s="43"/>
-      <c r="F352" s="40"/>
+      <c r="D352" s="40"/>
+      <c r="E352" s="41"/>
+      <c r="F352" s="38"/>
     </row>
     <row r="353" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
-      <c r="B353" s="41"/>
+      <c r="B353" s="39"/>
       <c r="C353" s="7"/>
-      <c r="D353" s="42"/>
-      <c r="E353" s="43"/>
-      <c r="F353" s="40"/>
+      <c r="D353" s="40"/>
+      <c r="E353" s="41"/>
+      <c r="F353" s="38"/>
     </row>
     <row r="354" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="7"/>
-      <c r="B354" s="41"/>
+      <c r="B354" s="39"/>
       <c r="C354" s="7"/>
-      <c r="D354" s="42"/>
-      <c r="E354" s="43"/>
-      <c r="F354" s="40"/>
+      <c r="D354" s="40"/>
+      <c r="E354" s="41"/>
+      <c r="F354" s="38"/>
     </row>
     <row r="355" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
-      <c r="B355" s="41"/>
+      <c r="B355" s="39"/>
       <c r="C355" s="7"/>
-      <c r="D355" s="42"/>
-      <c r="E355" s="43"/>
-      <c r="F355" s="40"/>
+      <c r="D355" s="40"/>
+      <c r="E355" s="41"/>
+      <c r="F355" s="38"/>
     </row>
     <row r="356" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
-      <c r="B356" s="41"/>
+      <c r="B356" s="39"/>
       <c r="C356" s="7"/>
-      <c r="D356" s="42"/>
-      <c r="E356" s="43"/>
-      <c r="F356" s="40"/>
+      <c r="D356" s="40"/>
+      <c r="E356" s="41"/>
+      <c r="F356" s="38"/>
     </row>
     <row r="357" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="7"/>
-      <c r="B357" s="41"/>
+      <c r="B357" s="39"/>
       <c r="C357" s="7"/>
-      <c r="D357" s="42"/>
-      <c r="E357" s="43"/>
-      <c r="F357" s="40"/>
+      <c r="D357" s="40"/>
+      <c r="E357" s="41"/>
+      <c r="F357" s="38"/>
     </row>
     <row r="358" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
-      <c r="B358" s="41"/>
+      <c r="B358" s="39"/>
       <c r="C358" s="7"/>
-      <c r="D358" s="42"/>
-      <c r="E358" s="43"/>
-      <c r="F358" s="40"/>
+      <c r="D358" s="40"/>
+      <c r="E358" s="41"/>
+      <c r="F358" s="38"/>
     </row>
     <row r="359" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="7"/>
-      <c r="B359" s="41"/>
+      <c r="B359" s="39"/>
       <c r="C359" s="7"/>
-      <c r="D359" s="42"/>
-      <c r="E359" s="43"/>
-      <c r="F359" s="40"/>
+      <c r="D359" s="40"/>
+      <c r="E359" s="41"/>
+      <c r="F359" s="38"/>
     </row>
     <row r="360" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="7"/>
-      <c r="B360" s="41"/>
+      <c r="B360" s="39"/>
       <c r="C360" s="7"/>
-      <c r="D360" s="42"/>
-      <c r="E360" s="43"/>
-      <c r="F360" s="40"/>
+      <c r="D360" s="40"/>
+      <c r="E360" s="41"/>
+      <c r="F360" s="38"/>
     </row>
     <row r="361" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="7"/>
-      <c r="B361" s="41"/>
+      <c r="B361" s="39"/>
       <c r="C361" s="7"/>
-      <c r="D361" s="42"/>
-      <c r="E361" s="43"/>
-      <c r="F361" s="40"/>
+      <c r="D361" s="40"/>
+      <c r="E361" s="41"/>
+      <c r="F361" s="38"/>
     </row>
     <row r="362" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
-      <c r="B362" s="41"/>
+      <c r="B362" s="39"/>
       <c r="C362" s="7"/>
-      <c r="D362" s="42"/>
-      <c r="E362" s="43"/>
-      <c r="F362" s="40"/>
+      <c r="D362" s="40"/>
+      <c r="E362" s="41"/>
+      <c r="F362" s="38"/>
     </row>
     <row r="363" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="7"/>
-      <c r="B363" s="41"/>
+      <c r="B363" s="39"/>
       <c r="C363" s="7"/>
-      <c r="D363" s="42"/>
-      <c r="E363" s="43"/>
-      <c r="F363" s="40"/>
+      <c r="D363" s="40"/>
+      <c r="E363" s="41"/>
+      <c r="F363" s="38"/>
     </row>
     <row r="364" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="7"/>
-      <c r="B364" s="41"/>
+      <c r="B364" s="39"/>
       <c r="C364" s="7"/>
-      <c r="D364" s="42"/>
-      <c r="E364" s="43"/>
-      <c r="F364" s="40"/>
+      <c r="D364" s="40"/>
+      <c r="E364" s="41"/>
+      <c r="F364" s="38"/>
     </row>
     <row r="365" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
-      <c r="B365" s="41"/>
+      <c r="B365" s="39"/>
       <c r="C365" s="7"/>
-      <c r="D365" s="42"/>
-      <c r="E365" s="43"/>
-      <c r="F365" s="40"/>
+      <c r="D365" s="40"/>
+      <c r="E365" s="41"/>
+      <c r="F365" s="38"/>
     </row>
     <row r="366" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="7"/>
-      <c r="B366" s="41"/>
+      <c r="B366" s="39"/>
       <c r="C366" s="7"/>
-      <c r="D366" s="42"/>
-      <c r="E366" s="43"/>
-      <c r="F366" s="40"/>
+      <c r="D366" s="40"/>
+      <c r="E366" s="41"/>
+      <c r="F366" s="38"/>
     </row>
     <row r="367" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="7"/>
-      <c r="B367" s="41"/>
+      <c r="B367" s="39"/>
       <c r="C367" s="7"/>
-      <c r="D367" s="42"/>
-      <c r="E367" s="43"/>
-      <c r="F367" s="40"/>
+      <c r="D367" s="40"/>
+      <c r="E367" s="41"/>
+      <c r="F367" s="38"/>
     </row>
     <row r="368" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="7"/>
-      <c r="B368" s="41"/>
+      <c r="B368" s="39"/>
       <c r="C368" s="7"/>
-      <c r="D368" s="42"/>
-      <c r="E368" s="43"/>
-      <c r="F368" s="40"/>
+      <c r="D368" s="40"/>
+      <c r="E368" s="41"/>
+      <c r="F368" s="38"/>
     </row>
     <row r="369" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="7"/>
-      <c r="B369" s="41"/>
+      <c r="B369" s="39"/>
       <c r="C369" s="7"/>
-      <c r="D369" s="42"/>
-      <c r="E369" s="43"/>
-      <c r="F369" s="40"/>
+      <c r="D369" s="40"/>
+      <c r="E369" s="41"/>
+      <c r="F369" s="38"/>
     </row>
     <row r="370" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="7"/>
-      <c r="B370" s="41"/>
+      <c r="B370" s="39"/>
       <c r="C370" s="7"/>
-      <c r="D370" s="42"/>
-      <c r="E370" s="43"/>
-      <c r="F370" s="40"/>
+      <c r="D370" s="40"/>
+      <c r="E370" s="41"/>
+      <c r="F370" s="38"/>
     </row>
     <row r="371" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="7"/>
-      <c r="B371" s="41"/>
+      <c r="B371" s="39"/>
       <c r="C371" s="7"/>
-      <c r="D371" s="42"/>
-      <c r="E371" s="43"/>
-      <c r="F371" s="40"/>
+      <c r="D371" s="40"/>
+      <c r="E371" s="41"/>
+      <c r="F371" s="38"/>
     </row>
     <row r="372" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="7"/>
-      <c r="B372" s="41"/>
+      <c r="B372" s="39"/>
       <c r="C372" s="7"/>
-      <c r="D372" s="42"/>
-      <c r="E372" s="43"/>
-      <c r="F372" s="40"/>
+      <c r="D372" s="40"/>
+      <c r="E372" s="41"/>
+      <c r="F372" s="38"/>
     </row>
     <row r="373" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="7"/>
-      <c r="B373" s="41"/>
+      <c r="B373" s="39"/>
       <c r="C373" s="7"/>
-      <c r="D373" s="42"/>
-      <c r="E373" s="43"/>
-      <c r="F373" s="40"/>
+      <c r="D373" s="40"/>
+      <c r="E373" s="41"/>
+      <c r="F373" s="38"/>
     </row>
     <row r="374" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="7"/>
-      <c r="B374" s="41"/>
+      <c r="B374" s="39"/>
       <c r="C374" s="7"/>
-      <c r="D374" s="42"/>
-      <c r="E374" s="43"/>
-      <c r="F374" s="40"/>
+      <c r="D374" s="40"/>
+      <c r="E374" s="41"/>
+      <c r="F374" s="38"/>
     </row>
     <row r="375" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="7"/>
-      <c r="B375" s="41"/>
+      <c r="B375" s="39"/>
       <c r="C375" s="7"/>
-      <c r="D375" s="42"/>
-      <c r="E375" s="43"/>
-      <c r="F375" s="40"/>
+      <c r="D375" s="40"/>
+      <c r="E375" s="41"/>
+      <c r="F375" s="38"/>
     </row>
     <row r="376" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="7"/>
-      <c r="B376" s="41"/>
+      <c r="B376" s="39"/>
       <c r="C376" s="7"/>
-      <c r="D376" s="42"/>
-      <c r="E376" s="43"/>
-      <c r="F376" s="40"/>
+      <c r="D376" s="40"/>
+      <c r="E376" s="41"/>
+      <c r="F376" s="38"/>
     </row>
     <row r="377" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="7"/>
-      <c r="B377" s="41"/>
+      <c r="B377" s="39"/>
       <c r="C377" s="7"/>
-      <c r="D377" s="42"/>
-      <c r="E377" s="43"/>
-      <c r="F377" s="40"/>
+      <c r="D377" s="40"/>
+      <c r="E377" s="41"/>
+      <c r="F377" s="38"/>
     </row>
     <row r="378" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="7"/>
-      <c r="B378" s="41"/>
+      <c r="B378" s="39"/>
       <c r="C378" s="7"/>
-      <c r="D378" s="42"/>
-      <c r="E378" s="43"/>
-      <c r="F378" s="40"/>
+      <c r="D378" s="40"/>
+      <c r="E378" s="41"/>
+      <c r="F378" s="38"/>
     </row>
     <row r="379" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="7"/>
-      <c r="B379" s="41"/>
+      <c r="B379" s="39"/>
       <c r="C379" s="7"/>
-      <c r="D379" s="42"/>
-      <c r="E379" s="43"/>
-      <c r="F379" s="40"/>
+      <c r="D379" s="40"/>
+      <c r="E379" s="41"/>
+      <c r="F379" s="38"/>
     </row>
     <row r="380" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="7"/>
-      <c r="B380" s="41"/>
+      <c r="B380" s="39"/>
       <c r="C380" s="7"/>
-      <c r="D380" s="42"/>
-      <c r="E380" s="43"/>
-      <c r="F380" s="40"/>
+      <c r="D380" s="40"/>
+      <c r="E380" s="41"/>
+      <c r="F380" s="38"/>
     </row>
     <row r="381" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="7"/>
-      <c r="B381" s="41"/>
+      <c r="B381" s="39"/>
       <c r="C381" s="7"/>
-      <c r="D381" s="42"/>
-      <c r="E381" s="43"/>
-      <c r="F381" s="40"/>
+      <c r="D381" s="40"/>
+      <c r="E381" s="41"/>
+      <c r="F381" s="38"/>
     </row>
     <row r="382" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="7"/>
-      <c r="B382" s="41"/>
+      <c r="B382" s="39"/>
       <c r="C382" s="7"/>
-      <c r="D382" s="42"/>
-      <c r="E382" s="43"/>
-      <c r="F382" s="40"/>
+      <c r="D382" s="40"/>
+      <c r="E382" s="41"/>
+      <c r="F382" s="38"/>
     </row>
     <row r="383" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="7"/>
-      <c r="B383" s="41"/>
+      <c r="B383" s="39"/>
       <c r="C383" s="7"/>
-      <c r="D383" s="42"/>
-      <c r="E383" s="43"/>
-      <c r="F383" s="40"/>
+      <c r="D383" s="40"/>
+      <c r="E383" s="41"/>
+      <c r="F383" s="38"/>
     </row>
     <row r="384" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="7"/>
-      <c r="B384" s="41"/>
+      <c r="B384" s="39"/>
       <c r="C384" s="7"/>
-      <c r="D384" s="42"/>
-      <c r="E384" s="43"/>
-      <c r="F384" s="40"/>
+      <c r="D384" s="40"/>
+      <c r="E384" s="41"/>
+      <c r="F384" s="38"/>
     </row>
     <row r="385" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="7"/>
-      <c r="B385" s="41"/>
+      <c r="B385" s="39"/>
       <c r="C385" s="7"/>
-      <c r="D385" s="42"/>
-      <c r="E385" s="43"/>
-      <c r="F385" s="40"/>
+      <c r="D385" s="40"/>
+      <c r="E385" s="41"/>
+      <c r="F385" s="38"/>
     </row>
     <row r="386" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="7"/>
-      <c r="B386" s="41"/>
+      <c r="B386" s="39"/>
       <c r="C386" s="7"/>
-      <c r="D386" s="42"/>
-      <c r="E386" s="43"/>
-      <c r="F386" s="40"/>
+      <c r="D386" s="40"/>
+      <c r="E386" s="41"/>
+      <c r="F386" s="38"/>
     </row>
     <row r="387" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="7"/>
-      <c r="B387" s="41"/>
+      <c r="B387" s="39"/>
       <c r="C387" s="7"/>
-      <c r="D387" s="42"/>
-      <c r="E387" s="43"/>
-      <c r="F387" s="40"/>
+      <c r="D387" s="40"/>
+      <c r="E387" s="41"/>
+      <c r="F387" s="38"/>
     </row>
     <row r="388" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="7"/>
-      <c r="B388" s="41"/>
+      <c r="B388" s="39"/>
       <c r="C388" s="7"/>
-      <c r="D388" s="42"/>
-      <c r="E388" s="43"/>
-      <c r="F388" s="40"/>
+      <c r="D388" s="40"/>
+      <c r="E388" s="41"/>
+      <c r="F388" s="38"/>
     </row>
     <row r="389" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="7"/>
-      <c r="B389" s="41"/>
+      <c r="B389" s="39"/>
       <c r="C389" s="7"/>
-      <c r="D389" s="42"/>
-      <c r="E389" s="43"/>
-      <c r="F389" s="40"/>
+      <c r="D389" s="40"/>
+      <c r="E389" s="41"/>
+      <c r="F389" s="38"/>
     </row>
     <row r="390" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="7"/>
-      <c r="B390" s="41"/>
+      <c r="B390" s="39"/>
       <c r="C390" s="7"/>
-      <c r="D390" s="42"/>
-      <c r="E390" s="43"/>
-      <c r="F390" s="40"/>
+      <c r="D390" s="40"/>
+      <c r="E390" s="41"/>
+      <c r="F390" s="38"/>
     </row>
     <row r="391" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="7"/>
-      <c r="B391" s="41"/>
+      <c r="B391" s="39"/>
       <c r="C391" s="7"/>
-      <c r="D391" s="42"/>
-      <c r="E391" s="43"/>
-      <c r="F391" s="40"/>
+      <c r="D391" s="40"/>
+      <c r="E391" s="41"/>
+      <c r="F391" s="38"/>
     </row>
     <row r="392" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="7"/>
-      <c r="B392" s="41"/>
+      <c r="B392" s="39"/>
       <c r="C392" s="7"/>
-      <c r="D392" s="42"/>
-      <c r="E392" s="43"/>
-      <c r="F392" s="40"/>
+      <c r="D392" s="40"/>
+      <c r="E392" s="41"/>
+      <c r="F392" s="38"/>
     </row>
     <row r="393" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
-      <c r="B393" s="41"/>
+      <c r="B393" s="39"/>
       <c r="C393" s="7"/>
-      <c r="D393" s="42"/>
-      <c r="E393" s="43"/>
-      <c r="F393" s="40"/>
+      <c r="D393" s="40"/>
+      <c r="E393" s="41"/>
+      <c r="F393" s="38"/>
     </row>
     <row r="394" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
-      <c r="B394" s="41"/>
+      <c r="B394" s="39"/>
       <c r="C394" s="7"/>
-      <c r="D394" s="42"/>
-      <c r="E394" s="43"/>
-      <c r="F394" s="40"/>
+      <c r="D394" s="40"/>
+      <c r="E394" s="41"/>
+      <c r="F394" s="38"/>
     </row>
     <row r="395" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="7"/>
-      <c r="B395" s="41"/>
+      <c r="B395" s="39"/>
       <c r="C395" s="7"/>
-      <c r="D395" s="42"/>
-      <c r="E395" s="43"/>
-      <c r="F395" s="40"/>
+      <c r="D395" s="40"/>
+      <c r="E395" s="41"/>
+      <c r="F395" s="38"/>
     </row>
     <row r="396" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="7"/>
-      <c r="B396" s="41"/>
+      <c r="B396" s="39"/>
       <c r="C396" s="7"/>
-      <c r="D396" s="42"/>
-      <c r="E396" s="43"/>
-      <c r="F396" s="40"/>
+      <c r="D396" s="40"/>
+      <c r="E396" s="41"/>
+      <c r="F396" s="38"/>
     </row>
     <row r="397" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="7"/>
-      <c r="B397" s="41"/>
+      <c r="B397" s="39"/>
       <c r="C397" s="7"/>
-      <c r="D397" s="42"/>
-      <c r="E397" s="43"/>
-      <c r="F397" s="40"/>
+      <c r="D397" s="40"/>
+      <c r="E397" s="41"/>
+      <c r="F397" s="38"/>
     </row>
     <row r="398" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="7"/>
-      <c r="B398" s="41"/>
+      <c r="B398" s="39"/>
       <c r="C398" s="7"/>
-      <c r="D398" s="42"/>
-      <c r="E398" s="43"/>
-      <c r="F398" s="40"/>
+      <c r="D398" s="40"/>
+      <c r="E398" s="41"/>
+      <c r="F398" s="38"/>
     </row>
     <row r="399" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="7"/>
-      <c r="B399" s="41"/>
+      <c r="B399" s="39"/>
       <c r="C399" s="7"/>
-      <c r="D399" s="42"/>
-      <c r="E399" s="43"/>
-      <c r="F399" s="40"/>
+      <c r="D399" s="40"/>
+      <c r="E399" s="41"/>
+      <c r="F399" s="38"/>
     </row>
     <row r="400" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="7"/>
-      <c r="B400" s="41"/>
+      <c r="B400" s="39"/>
       <c r="C400" s="7"/>
-      <c r="D400" s="42"/>
-      <c r="E400" s="43"/>
-      <c r="F400" s="40"/>
+      <c r="D400" s="40"/>
+      <c r="E400" s="41"/>
+      <c r="F400" s="38"/>
     </row>
     <row r="401" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="7"/>
-      <c r="B401" s="41"/>
+      <c r="B401" s="39"/>
       <c r="C401" s="7"/>
-      <c r="D401" s="42"/>
-      <c r="E401" s="43"/>
-      <c r="F401" s="40"/>
+      <c r="D401" s="40"/>
+      <c r="E401" s="41"/>
+      <c r="F401" s="38"/>
     </row>
     <row r="402" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="7"/>
-      <c r="B402" s="41"/>
+      <c r="B402" s="39"/>
       <c r="C402" s="7"/>
-      <c r="D402" s="42"/>
-      <c r="E402" s="43"/>
-      <c r="F402" s="40"/>
+      <c r="D402" s="40"/>
+      <c r="E402" s="41"/>
+      <c r="F402" s="38"/>
     </row>
     <row r="403" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="7"/>
-      <c r="B403" s="41"/>
+      <c r="B403" s="39"/>
       <c r="C403" s="7"/>
-      <c r="D403" s="42"/>
-      <c r="E403" s="43"/>
-      <c r="F403" s="40"/>
+      <c r="D403" s="40"/>
+      <c r="E403" s="41"/>
+      <c r="F403" s="38"/>
     </row>
     <row r="404" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="7"/>
-      <c r="B404" s="41"/>
+      <c r="B404" s="39"/>
       <c r="C404" s="7"/>
-      <c r="D404" s="42"/>
-      <c r="E404" s="43"/>
-      <c r="F404" s="40"/>
+      <c r="D404" s="40"/>
+      <c r="E404" s="41"/>
+      <c r="F404" s="38"/>
     </row>
     <row r="405" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
-      <c r="B405" s="41"/>
+      <c r="B405" s="39"/>
       <c r="C405" s="7"/>
-      <c r="D405" s="42"/>
-      <c r="E405" s="43"/>
-      <c r="F405" s="40"/>
+      <c r="D405" s="40"/>
+      <c r="E405" s="41"/>
+      <c r="F405" s="38"/>
     </row>
     <row r="406" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="7"/>
-      <c r="B406" s="41"/>
+      <c r="B406" s="39"/>
       <c r="C406" s="7"/>
-      <c r="D406" s="42"/>
-      <c r="E406" s="43"/>
-      <c r="F406" s="40"/>
+      <c r="D406" s="40"/>
+      <c r="E406" s="41"/>
+      <c r="F406" s="38"/>
     </row>
     <row r="407" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="7"/>
-      <c r="B407" s="41"/>
+      <c r="B407" s="39"/>
       <c r="C407" s="7"/>
-      <c r="D407" s="42"/>
-      <c r="E407" s="43"/>
-      <c r="F407" s="40"/>
+      <c r="D407" s="40"/>
+      <c r="E407" s="41"/>
+      <c r="F407" s="38"/>
     </row>
     <row r="408" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="7"/>
-      <c r="B408" s="41"/>
+      <c r="B408" s="39"/>
       <c r="C408" s="7"/>
-      <c r="D408" s="42"/>
-      <c r="E408" s="43"/>
-      <c r="F408" s="40"/>
+      <c r="D408" s="40"/>
+      <c r="E408" s="41"/>
+      <c r="F408" s="38"/>
     </row>
     <row r="409" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="7"/>
-      <c r="B409" s="41"/>
+      <c r="B409" s="39"/>
       <c r="C409" s="7"/>
-      <c r="D409" s="42"/>
-      <c r="E409" s="43"/>
-      <c r="F409" s="40"/>
+      <c r="D409" s="40"/>
+      <c r="E409" s="41"/>
+      <c r="F409" s="38"/>
     </row>
     <row r="410" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="7"/>
-      <c r="B410" s="41"/>
+      <c r="B410" s="39"/>
       <c r="C410" s="7"/>
-      <c r="D410" s="42"/>
-      <c r="E410" s="43"/>
-      <c r="F410" s="40"/>
+      <c r="D410" s="40"/>
+      <c r="E410" s="41"/>
+      <c r="F410" s="38"/>
     </row>
     <row r="411" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="7"/>
-      <c r="B411" s="41"/>
+      <c r="B411" s="39"/>
       <c r="C411" s="7"/>
-      <c r="D411" s="42"/>
-      <c r="E411" s="43"/>
-      <c r="F411" s="40"/>
+      <c r="D411" s="40"/>
+      <c r="E411" s="41"/>
+      <c r="F411" s="38"/>
     </row>
     <row r="412" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="7"/>
-      <c r="B412" s="41"/>
+      <c r="B412" s="39"/>
       <c r="C412" s="7"/>
-      <c r="D412" s="42"/>
-      <c r="E412" s="43"/>
-      <c r="F412" s="40"/>
+      <c r="D412" s="40"/>
+      <c r="E412" s="41"/>
+      <c r="F412" s="38"/>
     </row>
     <row r="413" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
-      <c r="B413" s="41"/>
+      <c r="B413" s="39"/>
       <c r="C413" s="7"/>
-      <c r="D413" s="42"/>
-      <c r="E413" s="43"/>
-      <c r="F413" s="40"/>
+      <c r="D413" s="40"/>
+      <c r="E413" s="41"/>
+      <c r="F413" s="38"/>
     </row>
     <row r="414" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="7"/>
-      <c r="B414" s="41"/>
+      <c r="B414" s="39"/>
       <c r="C414" s="7"/>
-      <c r="D414" s="42"/>
-      <c r="E414" s="43"/>
-      <c r="F414" s="40"/>
+      <c r="D414" s="40"/>
+      <c r="E414" s="41"/>
+      <c r="F414" s="38"/>
     </row>
     <row r="415" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="7"/>
-      <c r="B415" s="41"/>
+      <c r="B415" s="39"/>
       <c r="C415" s="7"/>
-      <c r="D415" s="42"/>
-      <c r="E415" s="43"/>
-      <c r="F415" s="40"/>
+      <c r="D415" s="40"/>
+      <c r="E415" s="41"/>
+      <c r="F415" s="38"/>
     </row>
     <row r="416" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="7"/>
-      <c r="B416" s="41"/>
+      <c r="B416" s="39"/>
       <c r="C416" s="7"/>
-      <c r="D416" s="42"/>
-      <c r="E416" s="43"/>
-      <c r="F416" s="40"/>
+      <c r="D416" s="40"/>
+      <c r="E416" s="41"/>
+      <c r="F416" s="38"/>
     </row>
     <row r="417" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="7"/>
-      <c r="B417" s="41"/>
+      <c r="B417" s="39"/>
       <c r="C417" s="7"/>
-      <c r="D417" s="42"/>
-      <c r="E417" s="43"/>
-      <c r="F417" s="40"/>
+      <c r="D417" s="40"/>
+      <c r="E417" s="41"/>
+      <c r="F417" s="38"/>
     </row>
     <row r="418" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="7"/>
-      <c r="B418" s="41"/>
+      <c r="B418" s="39"/>
       <c r="C418" s="7"/>
-      <c r="D418" s="42"/>
-      <c r="E418" s="43"/>
-      <c r="F418" s="40"/>
+      <c r="D418" s="40"/>
+      <c r="E418" s="41"/>
+      <c r="F418" s="38"/>
     </row>
     <row r="419" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="7"/>
-      <c r="B419" s="41"/>
+      <c r="B419" s="39"/>
       <c r="C419" s="7"/>
-      <c r="D419" s="42"/>
-      <c r="E419" s="43"/>
-      <c r="F419" s="40"/>
+      <c r="D419" s="40"/>
+      <c r="E419" s="41"/>
+      <c r="F419" s="38"/>
     </row>
     <row r="420" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="7"/>
-      <c r="B420" s="41"/>
+      <c r="B420" s="39"/>
       <c r="C420" s="7"/>
-      <c r="D420" s="42"/>
-      <c r="E420" s="43"/>
-      <c r="F420" s="40"/>
+      <c r="D420" s="40"/>
+      <c r="E420" s="41"/>
+      <c r="F420" s="38"/>
     </row>
     <row r="421" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="7"/>
-      <c r="B421" s="41"/>
+      <c r="B421" s="39"/>
       <c r="C421" s="7"/>
-      <c r="D421" s="42"/>
-      <c r="E421" s="43"/>
-      <c r="F421" s="40"/>
+      <c r="D421" s="40"/>
+      <c r="E421" s="41"/>
+      <c r="F421" s="38"/>
     </row>
     <row r="422" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="7"/>
-      <c r="B422" s="41"/>
+      <c r="B422" s="39"/>
       <c r="C422" s="7"/>
-      <c r="D422" s="42"/>
-      <c r="E422" s="43"/>
-      <c r="F422" s="40"/>
+      <c r="D422" s="40"/>
+      <c r="E422" s="41"/>
+      <c r="F422" s="38"/>
     </row>
     <row r="423" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="7"/>
-      <c r="B423" s="41"/>
+      <c r="B423" s="39"/>
       <c r="C423" s="7"/>
-      <c r="D423" s="42"/>
-      <c r="E423" s="43"/>
-      <c r="F423" s="40"/>
+      <c r="D423" s="40"/>
+      <c r="E423" s="41"/>
+      <c r="F423" s="38"/>
     </row>
     <row r="424" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="7"/>
-      <c r="B424" s="41"/>
+      <c r="B424" s="39"/>
       <c r="C424" s="7"/>
-      <c r="D424" s="42"/>
-      <c r="E424" s="43"/>
-      <c r="F424" s="40"/>
+      <c r="D424" s="40"/>
+      <c r="E424" s="41"/>
+      <c r="F424" s="38"/>
     </row>
     <row r="425" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="7"/>
-      <c r="B425" s="41"/>
+      <c r="B425" s="39"/>
       <c r="C425" s="7"/>
-      <c r="D425" s="42"/>
-      <c r="E425" s="43"/>
-      <c r="F425" s="40"/>
+      <c r="D425" s="40"/>
+      <c r="E425" s="41"/>
+      <c r="F425" s="38"/>
     </row>
     <row r="426" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="7"/>
-      <c r="B426" s="41"/>
+      <c r="B426" s="39"/>
       <c r="C426" s="7"/>
-      <c r="D426" s="42"/>
-      <c r="E426" s="43"/>
-      <c r="F426" s="40"/>
+      <c r="D426" s="40"/>
+      <c r="E426" s="41"/>
+      <c r="F426" s="38"/>
     </row>
     <row r="427" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="7"/>
-      <c r="B427" s="41"/>
+      <c r="B427" s="39"/>
       <c r="C427" s="7"/>
-      <c r="D427" s="42"/>
-      <c r="E427" s="43"/>
-      <c r="F427" s="40"/>
+      <c r="D427" s="40"/>
+      <c r="E427" s="41"/>
+      <c r="F427" s="38"/>
     </row>
     <row r="428" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="7"/>
-      <c r="B428" s="41"/>
+      <c r="B428" s="39"/>
       <c r="C428" s="7"/>
-      <c r="D428" s="42"/>
-      <c r="E428" s="43"/>
-      <c r="F428" s="40"/>
+      <c r="D428" s="40"/>
+      <c r="E428" s="41"/>
+      <c r="F428" s="38"/>
     </row>
     <row r="429" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="7"/>
-      <c r="B429" s="41"/>
+      <c r="B429" s="39"/>
       <c r="C429" s="7"/>
-      <c r="D429" s="42"/>
-      <c r="E429" s="43"/>
-      <c r="F429" s="40"/>
+      <c r="D429" s="40"/>
+      <c r="E429" s="41"/>
+      <c r="F429" s="38"/>
     </row>
     <row r="430" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="7"/>
-      <c r="B430" s="41"/>
+      <c r="B430" s="39"/>
       <c r="C430" s="7"/>
-      <c r="D430" s="42"/>
-      <c r="E430" s="43"/>
-      <c r="F430" s="40"/>
+      <c r="D430" s="40"/>
+      <c r="E430" s="41"/>
+      <c r="F430" s="38"/>
     </row>
     <row r="431" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="7"/>
-      <c r="B431" s="41"/>
+      <c r="B431" s="39"/>
       <c r="C431" s="7"/>
-      <c r="D431" s="42"/>
-      <c r="E431" s="43"/>
-      <c r="F431" s="40"/>
+      <c r="D431" s="40"/>
+      <c r="E431" s="41"/>
+      <c r="F431" s="38"/>
     </row>
     <row r="432" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="7"/>
-      <c r="B432" s="41"/>
+      <c r="B432" s="39"/>
       <c r="C432" s="7"/>
-      <c r="D432" s="42"/>
-      <c r="E432" s="43"/>
-      <c r="F432" s="40"/>
+      <c r="D432" s="40"/>
+      <c r="E432" s="41"/>
+      <c r="F432" s="38"/>
     </row>
     <row r="433" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="7"/>
-      <c r="B433" s="41"/>
+      <c r="B433" s="39"/>
       <c r="C433" s="7"/>
-      <c r="D433" s="42"/>
-      <c r="E433" s="43"/>
-      <c r="F433" s="40"/>
+      <c r="D433" s="40"/>
+      <c r="E433" s="41"/>
+      <c r="F433" s="38"/>
     </row>
     <row r="434" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="7"/>
-      <c r="B434" s="41"/>
+      <c r="B434" s="39"/>
       <c r="C434" s="7"/>
-      <c r="D434" s="42"/>
-      <c r="E434" s="43"/>
-      <c r="F434" s="40"/>
+      <c r="D434" s="40"/>
+      <c r="E434" s="41"/>
+      <c r="F434" s="38"/>
     </row>
     <row r="435" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="7"/>
-      <c r="B435" s="41"/>
+      <c r="B435" s="39"/>
       <c r="C435" s="7"/>
-      <c r="D435" s="42"/>
-      <c r="E435" s="43"/>
-      <c r="F435" s="40"/>
+      <c r="D435" s="40"/>
+      <c r="E435" s="41"/>
+      <c r="F435" s="38"/>
     </row>
     <row r="436" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="7"/>
-      <c r="B436" s="41"/>
+      <c r="B436" s="39"/>
       <c r="C436" s="7"/>
-      <c r="D436" s="42"/>
-      <c r="E436" s="43"/>
-      <c r="F436" s="40"/>
+      <c r="D436" s="40"/>
+      <c r="E436" s="41"/>
+      <c r="F436" s="38"/>
     </row>
     <row r="437" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="7"/>
-      <c r="B437" s="41"/>
+      <c r="B437" s="39"/>
       <c r="C437" s="7"/>
-      <c r="D437" s="42"/>
-      <c r="E437" s="43"/>
-      <c r="F437" s="40"/>
+      <c r="D437" s="40"/>
+      <c r="E437" s="41"/>
+      <c r="F437" s="38"/>
     </row>
     <row r="438" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="7"/>
-      <c r="B438" s="41"/>
+      <c r="B438" s="39"/>
       <c r="C438" s="7"/>
-      <c r="D438" s="42"/>
-      <c r="E438" s="43"/>
-      <c r="F438" s="40"/>
+      <c r="D438" s="40"/>
+      <c r="E438" s="41"/>
+      <c r="F438" s="38"/>
     </row>
     <row r="439" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="7"/>
-      <c r="B439" s="41"/>
+      <c r="B439" s="39"/>
       <c r="C439" s="7"/>
-      <c r="D439" s="42"/>
-      <c r="E439" s="43"/>
-      <c r="F439" s="40"/>
+      <c r="D439" s="40"/>
+      <c r="E439" s="41"/>
+      <c r="F439" s="38"/>
     </row>
     <row r="440" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="7"/>
-      <c r="B440" s="41"/>
+      <c r="B440" s="39"/>
       <c r="C440" s="7"/>
-      <c r="D440" s="42"/>
-      <c r="E440" s="43"/>
-      <c r="F440" s="40"/>
+      <c r="D440" s="40"/>
+      <c r="E440" s="41"/>
+      <c r="F440" s="38"/>
     </row>
     <row r="441" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="7"/>
-      <c r="B441" s="41"/>
+      <c r="B441" s="39"/>
       <c r="C441" s="7"/>
-      <c r="D441" s="42"/>
-      <c r="E441" s="43"/>
-      <c r="F441" s="40"/>
+      <c r="D441" s="40"/>
+      <c r="E441" s="41"/>
+      <c r="F441" s="38"/>
     </row>
     <row r="442" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="7"/>
-      <c r="B442" s="41"/>
+      <c r="B442" s="39"/>
       <c r="C442" s="7"/>
-      <c r="D442" s="42"/>
-      <c r="E442" s="43"/>
-      <c r="F442" s="40"/>
+      <c r="D442" s="40"/>
+      <c r="E442" s="41"/>
+      <c r="F442" s="38"/>
     </row>
     <row r="443" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="7"/>
-      <c r="B443" s="41"/>
+      <c r="B443" s="39"/>
       <c r="C443" s="7"/>
-      <c r="D443" s="42"/>
-      <c r="E443" s="43"/>
-      <c r="F443" s="40"/>
+      <c r="D443" s="40"/>
+      <c r="E443" s="41"/>
+      <c r="F443" s="38"/>
     </row>
     <row r="444" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="7"/>
-      <c r="B444" s="41"/>
+      <c r="B444" s="39"/>
       <c r="C444" s="7"/>
-      <c r="D444" s="42"/>
-      <c r="E444" s="43"/>
-      <c r="F444" s="40"/>
+      <c r="D444" s="40"/>
+      <c r="E444" s="41"/>
+      <c r="F444" s="38"/>
     </row>
     <row r="445" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="7"/>
-      <c r="B445" s="41"/>
+      <c r="B445" s="39"/>
       <c r="C445" s="7"/>
-      <c r="D445" s="42"/>
-      <c r="E445" s="43"/>
-      <c r="F445" s="40"/>
+      <c r="D445" s="40"/>
+      <c r="E445" s="41"/>
+      <c r="F445" s="38"/>
     </row>
     <row r="446" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="7"/>
-      <c r="B446" s="41"/>
+      <c r="B446" s="39"/>
       <c r="C446" s="7"/>
-      <c r="D446" s="42"/>
-      <c r="E446" s="43"/>
-      <c r="F446" s="40"/>
+      <c r="D446" s="40"/>
+      <c r="E446" s="41"/>
+      <c r="F446" s="38"/>
     </row>
     <row r="447" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="7"/>
-      <c r="B447" s="41"/>
+      <c r="B447" s="39"/>
       <c r="C447" s="7"/>
-      <c r="D447" s="42"/>
-      <c r="E447" s="43"/>
-      <c r="F447" s="40"/>
+      <c r="D447" s="40"/>
+      <c r="E447" s="41"/>
+      <c r="F447" s="38"/>
     </row>
     <row r="448" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="7"/>
-      <c r="B448" s="41"/>
+      <c r="B448" s="39"/>
       <c r="C448" s="7"/>
-      <c r="D448" s="42"/>
-      <c r="E448" s="43"/>
-      <c r="F448" s="40"/>
+      <c r="D448" s="40"/>
+      <c r="E448" s="41"/>
+      <c r="F448" s="38"/>
     </row>
     <row r="449" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="7"/>
-      <c r="B449" s="41"/>
+      <c r="B449" s="39"/>
       <c r="C449" s="7"/>
-      <c r="D449" s="42"/>
-      <c r="E449" s="43"/>
-      <c r="F449" s="40"/>
+      <c r="D449" s="40"/>
+      <c r="E449" s="41"/>
+      <c r="F449" s="38"/>
     </row>
     <row r="450" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="7"/>
-      <c r="B450" s="41"/>
+      <c r="B450" s="39"/>
       <c r="C450" s="7"/>
-      <c r="D450" s="42"/>
-      <c r="E450" s="43"/>
-      <c r="F450" s="40"/>
+      <c r="D450" s="40"/>
+      <c r="E450" s="41"/>
+      <c r="F450" s="38"/>
     </row>
     <row r="451" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="7"/>
-      <c r="B451" s="41"/>
+      <c r="B451" s="39"/>
       <c r="C451" s="7"/>
-      <c r="D451" s="42"/>
-      <c r="E451" s="43"/>
-      <c r="F451" s="40"/>
+      <c r="D451" s="40"/>
+      <c r="E451" s="41"/>
+      <c r="F451" s="38"/>
     </row>
     <row r="452" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="7"/>
-      <c r="B452" s="41"/>
+      <c r="B452" s="39"/>
       <c r="C452" s="7"/>
-      <c r="D452" s="42"/>
-      <c r="E452" s="43"/>
-      <c r="F452" s="40"/>
+      <c r="D452" s="40"/>
+      <c r="E452" s="41"/>
+      <c r="F452" s="38"/>
     </row>
     <row r="453" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="7"/>
-      <c r="B453" s="41"/>
+      <c r="B453" s="39"/>
       <c r="C453" s="7"/>
-      <c r="D453" s="42"/>
-      <c r="E453" s="43"/>
-      <c r="F453" s="40"/>
+      <c r="D453" s="40"/>
+      <c r="E453" s="41"/>
+      <c r="F453" s="38"/>
     </row>
     <row r="454" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="7"/>
-      <c r="B454" s="41"/>
+      <c r="B454" s="39"/>
       <c r="C454" s="7"/>
-      <c r="D454" s="42"/>
-      <c r="E454" s="43"/>
-      <c r="F454" s="40"/>
+      <c r="D454" s="40"/>
+      <c r="E454" s="41"/>
+      <c r="F454" s="38"/>
     </row>
     <row r="455" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="7"/>
-      <c r="B455" s="41"/>
+      <c r="B455" s="39"/>
       <c r="C455" s="7"/>
-      <c r="D455" s="42"/>
-      <c r="E455" s="43"/>
-      <c r="F455" s="40"/>
+      <c r="D455" s="40"/>
+      <c r="E455" s="41"/>
+      <c r="F455" s="38"/>
     </row>
     <row r="456" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="7"/>
-      <c r="B456" s="41"/>
+      <c r="B456" s="39"/>
       <c r="C456" s="7"/>
-      <c r="D456" s="42"/>
-      <c r="E456" s="43"/>
-      <c r="F456" s="40"/>
+      <c r="D456" s="40"/>
+      <c r="E456" s="41"/>
+      <c r="F456" s="38"/>
     </row>
     <row r="457" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="7"/>
-      <c r="B457" s="41"/>
+      <c r="B457" s="39"/>
       <c r="C457" s="7"/>
-      <c r="D457" s="42"/>
-      <c r="E457" s="43"/>
-      <c r="F457" s="40"/>
+      <c r="D457" s="40"/>
+      <c r="E457" s="41"/>
+      <c r="F457" s="38"/>
     </row>
     <row r="458" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="7"/>
-      <c r="B458" s="41"/>
+      <c r="B458" s="39"/>
       <c r="C458" s="7"/>
-      <c r="D458" s="42"/>
-      <c r="E458" s="43"/>
-      <c r="F458" s="40"/>
+      <c r="D458" s="40"/>
+      <c r="E458" s="41"/>
+      <c r="F458" s="38"/>
     </row>
     <row r="459" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="7"/>
-      <c r="B459" s="41"/>
+      <c r="B459" s="39"/>
       <c r="C459" s="7"/>
-      <c r="D459" s="42"/>
-      <c r="E459" s="43"/>
-      <c r="F459" s="40"/>
+      <c r="D459" s="40"/>
+      <c r="E459" s="41"/>
+      <c r="F459" s="38"/>
     </row>
     <row r="460" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="7"/>
-      <c r="B460" s="41"/>
+      <c r="B460" s="39"/>
       <c r="C460" s="7"/>
-      <c r="D460" s="42"/>
-      <c r="E460" s="43"/>
-      <c r="F460" s="40"/>
+      <c r="D460" s="40"/>
+      <c r="E460" s="41"/>
+      <c r="F460" s="38"/>
     </row>
     <row r="461" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="7"/>
-      <c r="B461" s="41"/>
+      <c r="B461" s="39"/>
       <c r="C461" s="7"/>
-      <c r="D461" s="42"/>
-      <c r="E461" s="43"/>
-      <c r="F461" s="40"/>
+      <c r="D461" s="40"/>
+      <c r="E461" s="41"/>
+      <c r="F461" s="38"/>
     </row>
     <row r="462" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="7"/>
-      <c r="B462" s="41"/>
+      <c r="B462" s="39"/>
       <c r="C462" s="7"/>
-      <c r="D462" s="42"/>
-      <c r="E462" s="43"/>
-      <c r="F462" s="40"/>
+      <c r="D462" s="40"/>
+      <c r="E462" s="41"/>
+      <c r="F462" s="38"/>
     </row>
     <row r="463" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="7"/>
-      <c r="B463" s="41"/>
+      <c r="B463" s="39"/>
       <c r="C463" s="7"/>
-      <c r="D463" s="42"/>
-      <c r="E463" s="43"/>
-      <c r="F463" s="40"/>
+      <c r="D463" s="40"/>
+      <c r="E463" s="41"/>
+      <c r="F463" s="38"/>
     </row>
     <row r="464" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="7"/>
-      <c r="B464" s="41"/>
+      <c r="B464" s="39"/>
       <c r="C464" s="7"/>
-      <c r="D464" s="42"/>
-      <c r="E464" s="43"/>
-      <c r="F464" s="40"/>
+      <c r="D464" s="40"/>
+      <c r="E464" s="41"/>
+      <c r="F464" s="38"/>
     </row>
     <row r="465" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="7"/>
-      <c r="B465" s="41"/>
+      <c r="B465" s="39"/>
       <c r="C465" s="7"/>
-      <c r="D465" s="42"/>
-      <c r="E465" s="43"/>
-      <c r="F465" s="40"/>
+      <c r="D465" s="40"/>
+      <c r="E465" s="41"/>
+      <c r="F465" s="38"/>
     </row>
     <row r="466" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="7"/>
-      <c r="B466" s="41"/>
+      <c r="B466" s="39"/>
       <c r="C466" s="7"/>
-      <c r="D466" s="42"/>
-      <c r="E466" s="43"/>
-      <c r="F466" s="40"/>
+      <c r="D466" s="40"/>
+      <c r="E466" s="41"/>
+      <c r="F466" s="38"/>
     </row>
     <row r="467" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="7"/>
-      <c r="B467" s="41"/>
+      <c r="B467" s="39"/>
       <c r="C467" s="7"/>
-      <c r="D467" s="42"/>
-      <c r="E467" s="43"/>
-      <c r="F467" s="40"/>
+      <c r="D467" s="40"/>
+      <c r="E467" s="41"/>
+      <c r="F467" s="38"/>
     </row>
     <row r="468" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="7"/>
-      <c r="B468" s="41"/>
+      <c r="B468" s="39"/>
       <c r="C468" s="7"/>
-      <c r="D468" s="42"/>
-      <c r="E468" s="43"/>
-      <c r="F468" s="40"/>
+      <c r="D468" s="40"/>
+      <c r="E468" s="41"/>
+      <c r="F468" s="38"/>
     </row>
     <row r="469" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="7"/>
-      <c r="B469" s="41"/>
+      <c r="B469" s="39"/>
       <c r="C469" s="7"/>
-      <c r="D469" s="42"/>
-      <c r="E469" s="43"/>
-      <c r="F469" s="40"/>
+      <c r="D469" s="40"/>
+      <c r="E469" s="41"/>
+      <c r="F469" s="38"/>
     </row>
     <row r="470" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="7"/>
-      <c r="B470" s="41"/>
+      <c r="B470" s="39"/>
       <c r="C470" s="7"/>
-      <c r="D470" s="42"/>
-      <c r="E470" s="43"/>
-      <c r="F470" s="40"/>
+      <c r="D470" s="40"/>
+      <c r="E470" s="41"/>
+      <c r="F470" s="38"/>
     </row>
     <row r="471" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="7"/>
-      <c r="B471" s="41"/>
+      <c r="B471" s="39"/>
       <c r="C471" s="7"/>
-      <c r="D471" s="42"/>
-      <c r="E471" s="43"/>
-      <c r="F471" s="40"/>
+      <c r="D471" s="40"/>
+      <c r="E471" s="41"/>
+      <c r="F471" s="38"/>
     </row>
     <row r="472" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="7"/>
-      <c r="B472" s="41"/>
+      <c r="B472" s="39"/>
       <c r="C472" s="7"/>
-      <c r="D472" s="42"/>
-      <c r="E472" s="43"/>
-      <c r="F472" s="40"/>
+      <c r="D472" s="40"/>
+      <c r="E472" s="41"/>
+      <c r="F472" s="38"/>
     </row>
     <row r="473" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="7"/>
-      <c r="B473" s="41"/>
+      <c r="B473" s="39"/>
       <c r="C473" s="7"/>
-      <c r="D473" s="42"/>
-      <c r="E473" s="43"/>
-      <c r="F473" s="40"/>
+      <c r="D473" s="40"/>
+      <c r="E473" s="41"/>
+      <c r="F473" s="38"/>
     </row>
     <row r="474" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="7"/>
-      <c r="B474" s="41"/>
+      <c r="B474" s="39"/>
       <c r="C474" s="7"/>
-      <c r="D474" s="42"/>
-      <c r="E474" s="43"/>
-      <c r="F474" s="40"/>
+      <c r="D474" s="40"/>
+      <c r="E474" s="41"/>
+      <c r="F474" s="38"/>
     </row>
     <row r="475" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="7"/>
-      <c r="B475" s="41"/>
+      <c r="B475" s="39"/>
       <c r="C475" s="7"/>
-      <c r="D475" s="42"/>
-      <c r="E475" s="43"/>
-      <c r="F475" s="40"/>
+      <c r="D475" s="40"/>
+      <c r="E475" s="41"/>
+      <c r="F475" s="38"/>
     </row>
     <row r="476" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="7"/>
-      <c r="B476" s="41"/>
+      <c r="B476" s="39"/>
       <c r="C476" s="7"/>
-      <c r="D476" s="42"/>
-      <c r="E476" s="43"/>
-      <c r="F476" s="40"/>
+      <c r="D476" s="40"/>
+      <c r="E476" s="41"/>
+      <c r="F476" s="38"/>
     </row>
     <row r="477" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="7"/>
-      <c r="B477" s="41"/>
+      <c r="B477" s="39"/>
       <c r="C477" s="7"/>
-      <c r="D477" s="42"/>
-      <c r="E477" s="43"/>
-      <c r="F477" s="40"/>
+      <c r="D477" s="40"/>
+      <c r="E477" s="41"/>
+      <c r="F477" s="38"/>
     </row>
     <row r="478" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="7"/>
-      <c r="B478" s="41"/>
+      <c r="B478" s="39"/>
       <c r="C478" s="7"/>
-      <c r="D478" s="42"/>
-      <c r="E478" s="43"/>
-      <c r="F478" s="40"/>
+      <c r="D478" s="40"/>
+      <c r="E478" s="41"/>
+      <c r="F478" s="38"/>
     </row>
     <row r="479" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="7"/>
-      <c r="B479" s="41"/>
+      <c r="B479" s="39"/>
       <c r="C479" s="7"/>
-      <c r="D479" s="42"/>
-      <c r="E479" s="43"/>
-      <c r="F479" s="40"/>
+      <c r="D479" s="40"/>
+      <c r="E479" s="41"/>
+      <c r="F479" s="38"/>
     </row>
     <row r="480" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="7"/>
-      <c r="B480" s="41"/>
+      <c r="B480" s="39"/>
       <c r="C480" s="7"/>
-      <c r="D480" s="42"/>
-      <c r="E480" s="43"/>
-      <c r="F480" s="40"/>
+      <c r="D480" s="40"/>
+      <c r="E480" s="41"/>
+      <c r="F480" s="38"/>
     </row>
     <row r="481" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="7"/>
-      <c r="B481" s="41"/>
+      <c r="B481" s="39"/>
       <c r="C481" s="7"/>
-      <c r="D481" s="42"/>
-      <c r="E481" s="43"/>
-      <c r="F481" s="40"/>
+      <c r="D481" s="40"/>
+      <c r="E481" s="41"/>
+      <c r="F481" s="38"/>
     </row>
     <row r="482" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="7"/>
-      <c r="B482" s="41"/>
+      <c r="B482" s="39"/>
       <c r="C482" s="7"/>
-      <c r="D482" s="42"/>
-      <c r="E482" s="43"/>
-      <c r="F482" s="40"/>
+      <c r="D482" s="40"/>
+      <c r="E482" s="41"/>
+      <c r="F482" s="38"/>
     </row>
     <row r="483" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="7"/>
-      <c r="B483" s="41"/>
+      <c r="B483" s="39"/>
       <c r="C483" s="7"/>
-      <c r="D483" s="42"/>
-      <c r="E483" s="43"/>
-      <c r="F483" s="40"/>
+      <c r="D483" s="40"/>
+      <c r="E483" s="41"/>
+      <c r="F483" s="38"/>
     </row>
     <row r="484" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="7"/>
-      <c r="B484" s="41"/>
+      <c r="B484" s="39"/>
       <c r="C484" s="7"/>
-      <c r="D484" s="42"/>
-      <c r="E484" s="43"/>
-      <c r="F484" s="40"/>
+      <c r="D484" s="40"/>
+      <c r="E484" s="41"/>
+      <c r="F484" s="38"/>
     </row>
     <row r="485" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="7"/>
-      <c r="B485" s="41"/>
+      <c r="B485" s="39"/>
       <c r="C485" s="7"/>
-      <c r="D485" s="42"/>
-      <c r="E485" s="43"/>
-      <c r="F485" s="40"/>
+      <c r="D485" s="40"/>
+      <c r="E485" s="41"/>
+      <c r="F485" s="38"/>
     </row>
     <row r="486" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="7"/>
-      <c r="B486" s="41"/>
+      <c r="B486" s="39"/>
       <c r="C486" s="7"/>
-      <c r="D486" s="42"/>
-      <c r="E486" s="43"/>
-      <c r="F486" s="40"/>
+      <c r="D486" s="40"/>
+      <c r="E486" s="41"/>
+      <c r="F486" s="38"/>
     </row>
     <row r="487" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="7"/>
-      <c r="B487" s="41"/>
+      <c r="B487" s="39"/>
       <c r="C487" s="7"/>
-      <c r="D487" s="42"/>
-      <c r="E487" s="43"/>
-      <c r="F487" s="40"/>
+      <c r="D487" s="40"/>
+      <c r="E487" s="41"/>
+      <c r="F487" s="38"/>
     </row>
     <row r="488" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="7"/>
-      <c r="B488" s="41"/>
+      <c r="B488" s="39"/>
       <c r="C488" s="7"/>
-      <c r="D488" s="42"/>
-      <c r="E488" s="43"/>
-      <c r="F488" s="40"/>
+      <c r="D488" s="40"/>
+      <c r="E488" s="41"/>
+      <c r="F488" s="38"/>
     </row>
     <row r="489" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="7"/>
-      <c r="B489" s="41"/>
+      <c r="B489" s="39"/>
       <c r="C489" s="7"/>
-      <c r="D489" s="42"/>
-      <c r="E489" s="43"/>
-      <c r="F489" s="40"/>
+      <c r="D489" s="40"/>
+      <c r="E489" s="41"/>
+      <c r="F489" s="38"/>
     </row>
     <row r="490" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="7"/>
-      <c r="B490" s="41"/>
+      <c r="B490" s="39"/>
       <c r="C490" s="7"/>
-      <c r="D490" s="42"/>
-      <c r="E490" s="43"/>
-      <c r="F490" s="40"/>
+      <c r="D490" s="40"/>
+      <c r="E490" s="41"/>
+      <c r="F490" s="38"/>
     </row>
     <row r="491" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="7"/>
-      <c r="B491" s="41"/>
+      <c r="B491" s="39"/>
       <c r="C491" s="7"/>
-      <c r="D491" s="42"/>
-      <c r="E491" s="43"/>
-      <c r="F491" s="40"/>
+      <c r="D491" s="40"/>
+      <c r="E491" s="41"/>
+      <c r="F491" s="38"/>
     </row>
     <row r="492" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="7"/>
-      <c r="B492" s="41"/>
+      <c r="B492" s="39"/>
       <c r="C492" s="7"/>
-      <c r="D492" s="42"/>
-      <c r="E492" s="43"/>
-      <c r="F492" s="40"/>
+      <c r="D492" s="40"/>
+      <c r="E492" s="41"/>
+      <c r="F492" s="38"/>
     </row>
     <row r="493" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="7"/>
-      <c r="B493" s="41"/>
+      <c r="B493" s="39"/>
       <c r="C493" s="7"/>
-      <c r="D493" s="42"/>
-      <c r="E493" s="43"/>
-      <c r="F493" s="40"/>
+      <c r="D493" s="40"/>
+      <c r="E493" s="41"/>
+      <c r="F493" s="38"/>
     </row>
     <row r="494" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="7"/>
-      <c r="B494" s="41"/>
+      <c r="B494" s="39"/>
       <c r="C494" s="7"/>
-      <c r="D494" s="42"/>
-      <c r="E494" s="43"/>
-      <c r="F494" s="40"/>
+      <c r="D494" s="40"/>
+      <c r="E494" s="41"/>
+      <c r="F494" s="38"/>
     </row>
     <row r="495" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="7"/>
-      <c r="B495" s="41"/>
+      <c r="B495" s="39"/>
       <c r="C495" s="7"/>
-      <c r="D495" s="42"/>
-      <c r="E495" s="43"/>
-      <c r="F495" s="40"/>
+      <c r="D495" s="40"/>
+      <c r="E495" s="41"/>
+      <c r="F495" s="38"/>
     </row>
     <row r="496" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="7"/>
-      <c r="B496" s="41"/>
+      <c r="B496" s="39"/>
       <c r="C496" s="7"/>
-      <c r="D496" s="42"/>
-      <c r="E496" s="43"/>
-      <c r="F496" s="40"/>
+      <c r="D496" s="40"/>
+      <c r="E496" s="41"/>
+      <c r="F496" s="38"/>
     </row>
     <row r="497" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="7"/>
-      <c r="B497" s="41"/>
+      <c r="B497" s="39"/>
       <c r="C497" s="7"/>
-      <c r="D497" s="42"/>
-      <c r="E497" s="43"/>
-      <c r="F497" s="40"/>
+      <c r="D497" s="40"/>
+      <c r="E497" s="41"/>
+      <c r="F497" s="38"/>
     </row>
     <row r="498" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="7"/>
-      <c r="B498" s="41"/>
+      <c r="B498" s="39"/>
       <c r="C498" s="7"/>
-      <c r="D498" s="42"/>
-      <c r="E498" s="43"/>
-      <c r="F498" s="40"/>
+      <c r="D498" s="40"/>
+      <c r="E498" s="41"/>
+      <c r="F498" s="38"/>
     </row>
     <row r="499" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="7"/>
-      <c r="B499" s="41"/>
+      <c r="B499" s="39"/>
       <c r="C499" s="7"/>
-      <c r="D499" s="42"/>
-      <c r="E499" s="43"/>
-      <c r="F499" s="40"/>
+      <c r="D499" s="40"/>
+      <c r="E499" s="41"/>
+      <c r="F499" s="38"/>
     </row>
     <row r="500" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="7"/>
-      <c r="B500" s="41"/>
+      <c r="B500" s="39"/>
       <c r="C500" s="7"/>
-      <c r="D500" s="42"/>
-      <c r="E500" s="43"/>
-      <c r="F500" s="40"/>
+      <c r="D500" s="40"/>
+      <c r="E500" s="41"/>
+      <c r="F500" s="38"/>
     </row>
     <row r="501" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="7"/>
-      <c r="B501" s="41"/>
+      <c r="B501" s="39"/>
       <c r="C501" s="7"/>
-      <c r="D501" s="42"/>
-      <c r="E501" s="43"/>
-      <c r="F501" s="40"/>
+      <c r="D501" s="40"/>
+      <c r="E501" s="41"/>
+      <c r="F501" s="38"/>
     </row>
     <row r="502" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="7"/>
-      <c r="B502" s="41"/>
+      <c r="B502" s="39"/>
       <c r="C502" s="7"/>
-      <c r="D502" s="42"/>
-      <c r="E502" s="43"/>
-      <c r="F502" s="40"/>
+      <c r="D502" s="40"/>
+      <c r="E502" s="41"/>
+      <c r="F502" s="38"/>
     </row>
     <row r="503" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="7"/>
-      <c r="B503" s="41"/>
+      <c r="B503" s="39"/>
       <c r="C503" s="7"/>
-      <c r="D503" s="42"/>
-      <c r="E503" s="43"/>
-      <c r="F503" s="40"/>
+      <c r="D503" s="40"/>
+      <c r="E503" s="41"/>
+      <c r="F503" s="38"/>
     </row>
     <row r="504" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="7"/>
-      <c r="B504" s="41"/>
+      <c r="B504" s="39"/>
       <c r="C504" s="7"/>
-      <c r="D504" s="42"/>
-      <c r="E504" s="43"/>
-      <c r="F504" s="40"/>
+      <c r="D504" s="40"/>
+      <c r="E504" s="41"/>
+      <c r="F504" s="38"/>
     </row>
     <row r="505" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="7"/>
-      <c r="B505" s="41"/>
+      <c r="B505" s="39"/>
       <c r="C505" s="7"/>
-      <c r="D505" s="42"/>
-      <c r="E505" s="43"/>
-      <c r="F505" s="40"/>
+      <c r="D505" s="40"/>
+      <c r="E505" s="41"/>
+      <c r="F505" s="38"/>
     </row>
     <row r="506" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="7"/>
-      <c r="B506" s="41"/>
+      <c r="B506" s="39"/>
       <c r="C506" s="7"/>
-      <c r="D506" s="42"/>
-      <c r="E506" s="43"/>
-      <c r="F506" s="40"/>
+      <c r="D506" s="40"/>
+      <c r="E506" s="41"/>
+      <c r="F506" s="38"/>
     </row>
     <row r="507" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="7"/>
-      <c r="B507" s="41"/>
+      <c r="B507" s="39"/>
       <c r="C507" s="7"/>
-      <c r="D507" s="42"/>
-      <c r="E507" s="43"/>
-      <c r="F507" s="40"/>
+      <c r="D507" s="40"/>
+      <c r="E507" s="41"/>
+      <c r="F507" s="38"/>
     </row>
     <row r="508" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="7"/>
-      <c r="B508" s="41"/>
+      <c r="B508" s="39"/>
       <c r="C508" s="7"/>
-      <c r="D508" s="42"/>
-      <c r="E508" s="43"/>
-      <c r="F508" s="40"/>
+      <c r="D508" s="40"/>
+      <c r="E508" s="41"/>
+      <c r="F508" s="38"/>
     </row>
     <row r="509" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="7"/>
-      <c r="B509" s="41"/>
+      <c r="B509" s="39"/>
       <c r="C509" s="7"/>
-      <c r="D509" s="42"/>
-      <c r="E509" s="43"/>
-      <c r="F509" s="40"/>
+      <c r="D509" s="40"/>
+      <c r="E509" s="41"/>
+      <c r="F509" s="38"/>
     </row>
     <row r="510" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="7"/>
-      <c r="B510" s="41"/>
+      <c r="B510" s="39"/>
       <c r="C510" s="7"/>
-      <c r="D510" s="42"/>
-      <c r="E510" s="43"/>
-      <c r="F510" s="40"/>
+      <c r="D510" s="40"/>
+      <c r="E510" s="41"/>
+      <c r="F510" s="38"/>
     </row>
     <row r="511" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="7"/>
-      <c r="B511" s="41"/>
+      <c r="B511" s="39"/>
       <c r="C511" s="7"/>
-      <c r="D511" s="42"/>
-      <c r="E511" s="43"/>
-      <c r="F511" s="40"/>
+      <c r="D511" s="40"/>
+      <c r="E511" s="41"/>
+      <c r="F511" s="38"/>
     </row>
     <row r="512" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="7"/>
-      <c r="B512" s="41"/>
+      <c r="B512" s="39"/>
       <c r="C512" s="7"/>
-      <c r="D512" s="42"/>
-      <c r="E512" s="43"/>
-      <c r="F512" s="40"/>
+      <c r="D512" s="40"/>
+      <c r="E512" s="41"/>
+      <c r="F512" s="38"/>
     </row>
     <row r="513" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="7"/>
-      <c r="B513" s="41"/>
+      <c r="B513" s="39"/>
       <c r="C513" s="7"/>
-      <c r="D513" s="42"/>
-      <c r="E513" s="43"/>
-      <c r="F513" s="40"/>
+      <c r="D513" s="40"/>
+      <c r="E513" s="41"/>
+      <c r="F513" s="38"/>
     </row>
     <row r="514" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="7"/>
-      <c r="B514" s="41"/>
+      <c r="B514" s="39"/>
       <c r="C514" s="7"/>
-      <c r="D514" s="42"/>
-      <c r="E514" s="43"/>
-      <c r="F514" s="40"/>
+      <c r="D514" s="40"/>
+      <c r="E514" s="41"/>
+      <c r="F514" s="38"/>
     </row>
     <row r="515" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="7"/>
-      <c r="B515" s="41"/>
+      <c r="B515" s="39"/>
       <c r="C515" s="7"/>
-      <c r="D515" s="42"/>
-      <c r="E515" s="43"/>
-      <c r="F515" s="40"/>
+      <c r="D515" s="40"/>
+      <c r="E515" s="41"/>
+      <c r="F515" s="38"/>
     </row>
     <row r="516" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="7"/>
-      <c r="B516" s="41"/>
+      <c r="B516" s="39"/>
       <c r="C516" s="7"/>
-      <c r="D516" s="42"/>
-      <c r="E516" s="43"/>
-      <c r="F516" s="40"/>
+      <c r="D516" s="40"/>
+      <c r="E516" s="41"/>
+      <c r="F516" s="38"/>
     </row>
     <row r="517" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="7"/>
-      <c r="B517" s="41"/>
+      <c r="B517" s="39"/>
       <c r="C517" s="7"/>
-      <c r="D517" s="42"/>
-      <c r="E517" s="43"/>
-      <c r="F517" s="40"/>
+      <c r="D517" s="40"/>
+      <c r="E517" s="41"/>
+      <c r="F517" s="38"/>
     </row>
     <row r="518" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="7"/>
-      <c r="B518" s="41"/>
+      <c r="B518" s="39"/>
       <c r="C518" s="7"/>
-      <c r="D518" s="42"/>
-      <c r="E518" s="43"/>
-      <c r="F518" s="40"/>
+      <c r="D518" s="40"/>
+      <c r="E518" s="41"/>
+      <c r="F518" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6579,7 +6548,7 @@
     <mergeCell ref="B18:F18"/>
   </mergeCells>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.74803149606299213" bottom="0.36" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="3" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="3" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>